--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,128 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4407000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4585000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4981000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4738000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4786000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4876000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4694000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4174000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4244000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4291000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4233000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3970000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3913000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3947000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,8 +829,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +879,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +903,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +949,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +999,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,52 +1049,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-78000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G15" s="3">
         <v>-75000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-70000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>-64000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>-63000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>-29000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-56000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-50000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-53000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-48000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-45000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-43000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1611000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1781000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1419000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1995000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1939000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1717000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1764000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1729000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1667000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1659000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1632000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1395000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2925000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3370000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2957000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3367000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2881000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2755000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2457000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2480000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2562000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2566000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2311000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2281000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2552000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,96 +1240,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1831000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2004000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1633000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1687000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1687000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1469000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1221000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1549000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1092000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>971000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>965000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>918000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>942000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>948000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>847000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>841000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>963000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,96 +1386,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>921000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1375000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1129000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1462000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1012000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>893000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>892000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>847000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>875000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>879000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>788000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>782000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>908000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F24" s="3">
         <v>319000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>276000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>355000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>229000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>222000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>196000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>207000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>330000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>324000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>292000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>283000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>332000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1056000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>853000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1107000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>783000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>671000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>696000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>640000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>545000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>555000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>496000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>499000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>576000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1056000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>853000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1107000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>783000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>671000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>696000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>640000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>545000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>555000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>496000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>499000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>576000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1597,15 +1718,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-160000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1995000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1828000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1905000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1869000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1862000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1565000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1633000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1687000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1687000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1523000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1499000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1644000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1056000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>853000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1107000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>783000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>671000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>696000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>640000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>385000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>555000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>496000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>499000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>576000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1056000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>853000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1107000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>783000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>671000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>696000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>640000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>385000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>555000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>496000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>499000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>576000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13704000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12147000</v>
+      </c>
+      <c r="F41" s="3">
         <v>11461000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11755000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12963000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9396000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12068000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15675000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13044000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11602000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13915000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12020000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11392000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9321000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2231,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2281,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2331,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,8 +2381,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,8 +2431,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,8 +2481,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,52 +2531,64 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2255000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2293000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2335000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2161000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2129000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1887000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1771000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1740000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1763000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1778000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1818000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1661000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2681,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2492,8 +2731,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98038000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>104826000</v>
+      </c>
+      <c r="F54" s="3">
         <v>105943000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>106388000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>105384000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>106792000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>104545000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>99122000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>95559000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95808000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>92548000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>91140000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>89050000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>90207000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2875,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2660,8 +2921,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2704,52 +2971,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4205000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4718000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4488000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4765000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4724000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4099000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4491000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3932000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3618000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4287000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3793000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3214000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2888000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3809000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2792,52 +3071,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17248000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>19866000</v>
+      </c>
+      <c r="F61" s="3">
         <v>20363000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>21244000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>21891000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>23996000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>23741000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>21721000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>21015000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>20799000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19899000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>20709000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>20194000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>20147000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2880,8 +3171,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>86068000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>89738000</v>
+      </c>
+      <c r="F66" s="3">
         <v>90823000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>91654000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>90675000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>92114000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>90549000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>84664000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>81203000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>81574000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>78146000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>76808000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>74687000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>76011000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,16 +3491,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9960000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12117000</v>
+      </c>
+      <c r="F72" s="3">
         <v>11533000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>10627000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9939000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8986000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>8355000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7906000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7334000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6809000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6543000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6109000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5724000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5330000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11236000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14354000</v>
+      </c>
+      <c r="F76" s="3">
         <v>15120000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14734000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14709000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14678000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13996000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14458000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14356000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14234000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14402000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14332000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14363000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14196000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1056000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>853000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1107000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>783000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>671000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>696000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>640000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>385000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>555000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>496000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>499000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>576000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E83" s="3">
         <v>94000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="G83" s="3">
         <v>92000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>87000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>80000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>78000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>73000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>71000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>67000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>69000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>59000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>59000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>55000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2336000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2399000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1966000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2289000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2576000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2685000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2166000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1915000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2470000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2928000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1768000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1750000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2036000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4390,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4436,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3887000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>681000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3810000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>755000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1420000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-141000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-145000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-145000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-150000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-151000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-156000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-113000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-114000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-118000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-118000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-105000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-105000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-107000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,52 +4806,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4287000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2091000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>68000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1814000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4173000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2579000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-313000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2380000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>281000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1284000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-829000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1866000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,48 +4906,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>926000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-424000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2917000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1716000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2357000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1375000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1148000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2071000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,135 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3830000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4407000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4585000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4981000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4738000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4786000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4876000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4694000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4174000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4244000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4291000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4233000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3970000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3913000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3947000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1064,49 +1087,52 @@
         <v>-82000</v>
       </c>
       <c r="E15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="F15" s="3">
         <v>-78000</v>
       </c>
       <c r="G15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="H15" s="3">
         <v>-75000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-70000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-64000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-63000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-29000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-56000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-50000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-53000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-48000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-43000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2194000</v>
+        <v>1632000</v>
       </c>
       <c r="E17" s="3">
+        <v>1376000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1660000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1611000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1781000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1419000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1995000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1939000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1717000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1764000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1729000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1667000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1659000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1632000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1395000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2213000</v>
+        <v>2198000</v>
       </c>
       <c r="E18" s="3">
+        <v>3031000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2925000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3370000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2957000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3367000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2881000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2755000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2457000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2480000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2562000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2566000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2311000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2281000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2552000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,108 +1275,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1831000</v>
+        <v>-2139000</v>
       </c>
       <c r="E20" s="3">
+        <v>-2649000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="N20" s="3">
         <v>-1687000</v>
       </c>
       <c r="O20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E21" s="3">
         <v>478000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1015000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1469000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1221000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1549000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1092000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>971000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>965000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>918000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>942000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>948000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>847000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>841000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>963000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,108 +1432,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E23" s="3">
         <v>382000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>921000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1375000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1129000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1462000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1012000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>893000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>892000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>847000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>875000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>879000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>788000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>782000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>908000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>96000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>190000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>319000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>276000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>355000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>229000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>222000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>196000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>207000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>330000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>324000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>292000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>283000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>332000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E26" s="3">
         <v>286000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>731000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1056000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>853000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1107000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>783000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>671000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>696000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>640000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>545000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>555000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>496000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>499000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>576000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E27" s="3">
         <v>275000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>731000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1056000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>853000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1107000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>783000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>671000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>696000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>640000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>545000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>555000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>496000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>499000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>576000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,12 +1785,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-160000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1831000</v>
+        <v>2139000</v>
       </c>
       <c r="E32" s="3">
+        <v>2649000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2004000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1995000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1828000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1905000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1869000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1862000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1565000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1687000</v>
       </c>
       <c r="N32" s="3">
         <v>1687000</v>
       </c>
       <c r="O32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="P32" s="3">
         <v>1523000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1644000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E33" s="3">
         <v>275000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>731000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1056000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>853000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1107000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>783000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>671000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>696000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>640000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>385000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>555000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>496000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>499000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>576000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E35" s="3">
         <v>275000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>731000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1056000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>853000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1107000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>783000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>671000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>696000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>640000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>385000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>555000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>496000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>499000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>576000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16344000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13704000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12147000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11461000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11755000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12963000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9396000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12068000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15675000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13044000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11602000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13915000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12020000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11392000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9321000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,8 +2327,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2287,8 +2380,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,8 +2433,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2486,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2437,8 +2539,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,8 +2592,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2537,58 +2645,64 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2244000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2286000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2343000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2255000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2293000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2335000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2161000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2129000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1887000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1771000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1740000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1763000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1778000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1818000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1661000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2804,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2737,8 +2857,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96544000</v>
+      </c>
+      <c r="E54" s="3">
         <v>98038000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>104826000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105943000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106388000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105384000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106792000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104545000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99122000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95559000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95808000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92548000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91140000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89050000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>90207000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,8 +3007,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2927,8 +3058,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2977,58 +3111,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4428000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4205000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4718000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4488000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4765000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4724000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4099000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4491000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3932000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3618000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4287000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3793000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3214000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2888000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3809000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3077,58 +3217,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16069000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17248000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19866000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20363000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21244000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21891000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23996000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23741000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21721000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21015000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20799000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19899000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20709000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20194000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20147000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3177,8 +3323,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84645000</v>
+      </c>
+      <c r="E66" s="3">
         <v>86068000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>89738000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>90823000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>91654000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90675000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>92114000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90549000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84664000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81203000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81574000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78146000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>76808000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>74687000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76011000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3509,7 +3677,7 @@
         <v>734000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9852000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9960000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12117000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11533000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10627000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9939000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8986000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8355000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7906000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7334000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6809000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6543000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6109000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5724000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5330000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11165000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11236000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14354000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15120000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14734000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14709000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14678000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13996000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14458000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14356000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14234000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14402000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14332000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14363000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14196000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E81" s="3">
         <v>275000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>731000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1056000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>853000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1107000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>783000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>671000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>696000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>640000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>385000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>555000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>496000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>499000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>576000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E83" s="3">
         <v>96000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>94000</v>
       </c>
       <c r="F83" s="3">
         <v>94000</v>
       </c>
       <c r="G83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="H83" s="3">
         <v>92000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>87000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>59000</v>
       </c>
       <c r="P83" s="3">
         <v>59000</v>
       </c>
       <c r="Q83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="R83" s="3">
         <v>55000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1537000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2336000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2399000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1966000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2289000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2576000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2685000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2166000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1915000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2470000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2928000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1768000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1750000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2036000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,8 +4612,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2045000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3887000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>681000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3810000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>755000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1420000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,58 +4845,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-135000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-145000</v>
       </c>
       <c r="G96" s="3">
         <v>-145000</v>
       </c>
       <c r="H96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-150000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-151000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-156000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-113000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-118000</v>
       </c>
       <c r="N96" s="3">
         <v>-118000</v>
       </c>
       <c r="O96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="P96" s="3">
         <v>-105000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-107000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,58 +5055,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1796000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>68000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1814000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4173000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2579000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-313000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2380000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>281000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1284000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-829000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1866000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,54 +5161,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2630000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1137000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>926000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-424000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2917000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1716000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2357000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1375000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1148000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2071000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,142 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3837000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3830000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4407000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4585000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4981000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4738000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4786000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4876000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4694000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4174000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4244000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4291000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4233000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3970000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3913000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3947000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,61 +1098,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-82000</v>
+        <v>-83000</v>
       </c>
       <c r="E15" s="3">
         <v>-82000</v>
       </c>
       <c r="F15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="G15" s="3">
         <v>-78000</v>
       </c>
       <c r="H15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="I15" s="3">
         <v>-75000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-70000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-64000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-63000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-29000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-56000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-50000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-53000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-45000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-43000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1632000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1376000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1660000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1611000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1781000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1419000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1995000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1939000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1717000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1764000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1729000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1667000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1659000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1632000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1395000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2438000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2198000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3031000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2925000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3370000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2957000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3367000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2881000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2755000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2457000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2480000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2562000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2566000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2311000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2281000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2552000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,114 +1309,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2026000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="O20" s="3">
         <v>-1687000</v>
       </c>
       <c r="P20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E21" s="3">
         <v>156000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>478000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1015000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1469000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1221000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1549000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1092000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>971000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>965000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>918000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>942000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>948000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>847000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>841000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>963000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,114 +1475,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E23" s="3">
         <v>59000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>382000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>921000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1375000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1129000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1462000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1012000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>893000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>892000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>847000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>875000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>879000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>788000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>782000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>908000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>96000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>190000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>319000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>276000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>355000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>229000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>222000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>196000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>207000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>330000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>324000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>292000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>283000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>332000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>286000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>731000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1056000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>853000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1107000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>783000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>671000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>696000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>640000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>545000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>555000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>496000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>499000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>576000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E27" s="3">
         <v>37000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>275000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>731000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1056000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>853000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1107000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>783000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>671000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>696000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>640000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>545000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>555000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>496000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>499000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>576000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,12 +1849,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-160000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2026000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2139000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2649000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2004000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1995000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1828000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1905000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1869000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1862000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1565000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1687000</v>
       </c>
       <c r="O32" s="3">
         <v>1687000</v>
       </c>
       <c r="P32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1523000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1499000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1644000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E33" s="3">
         <v>37000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>275000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>731000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1056000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>853000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1107000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>783000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>671000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>696000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>640000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>385000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>555000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>496000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>499000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>576000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E35" s="3">
         <v>37000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>275000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>731000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1056000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>853000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1107000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>783000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>671000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>696000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>640000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>385000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>555000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>496000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>499000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>576000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13552000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16344000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13704000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12147000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11461000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11755000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12963000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9396000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12068000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15675000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13044000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11602000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13915000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12020000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11392000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9321000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2330,8 +2420,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2383,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,8 +2532,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2489,8 +2588,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2542,8 +2644,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,8 +2700,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2648,61 +2756,67 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2169000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2244000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2286000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2343000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2255000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2293000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2335000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2161000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2129000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1887000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1771000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1740000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1763000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1778000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1818000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1661000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,8 +2924,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2860,8 +2980,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95658000</v>
+      </c>
+      <c r="E54" s="3">
         <v>96544000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98038000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>104826000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105943000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>106388000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105384000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106792000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>104545000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99122000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95559000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95808000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92548000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91140000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89050000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>90207000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,8 +3138,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3061,8 +3192,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3114,61 +3248,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4295000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4428000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4205000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4718000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4488000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4765000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4724000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4099000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4491000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3932000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3618000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4287000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3793000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3214000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2888000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3809000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3220,61 +3360,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15771000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16069000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17248000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19866000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20363000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21244000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21891000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23996000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23741000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21721000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21015000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20799000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19899000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20709000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20194000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20147000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3326,8 +3472,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83559000</v>
+      </c>
+      <c r="E66" s="3">
         <v>84645000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86068000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>89738000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90823000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>91654000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90675000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>92114000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90549000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84664000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81203000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81574000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78146000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>76808000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>74687000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>76011000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3680,7 +3848,7 @@
         <v>734000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10024000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9852000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9960000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12117000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11533000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10627000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9939000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8986000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8355000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7906000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7334000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6809000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6543000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6109000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5724000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5330000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11365000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11165000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11236000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14354000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15120000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14734000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14709000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14678000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13996000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14458000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14356000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14234000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14402000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14332000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14363000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14196000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E81" s="3">
         <v>37000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>275000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>731000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1056000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>853000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1107000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>783000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>671000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>696000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>640000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>385000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>555000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>496000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>499000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>576000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4230,52 +4429,55 @@
         <v>97000</v>
       </c>
       <c r="E83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F83" s="3">
         <v>96000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>94000</v>
       </c>
       <c r="G83" s="3">
         <v>94000</v>
       </c>
       <c r="H83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="I83" s="3">
         <v>92000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>87000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>59000</v>
       </c>
       <c r="Q83" s="3">
         <v>59000</v>
       </c>
       <c r="R83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="S83" s="3">
         <v>55000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1483000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2381000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1537000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2336000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2399000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1966000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2289000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2576000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2685000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2166000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1915000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2470000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2928000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1768000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1750000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2036000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,8 +4833,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3171000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2045000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3887000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>681000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3810000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>755000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1420000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,61 +5079,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-128000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-135000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-145000</v>
       </c>
       <c r="H96" s="3">
         <v>-145000</v>
       </c>
       <c r="I96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-150000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-151000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-156000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-113000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-118000</v>
       </c>
       <c r="O96" s="3">
         <v>-118000</v>
       </c>
       <c r="P96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="Q96" s="3">
         <v>-105000</v>
       </c>
       <c r="R96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-107000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,61 +5301,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>68000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1814000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4173000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2579000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-313000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2380000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>281000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1284000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-829000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1866000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5164,57 +5413,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2788000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2630000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1137000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>926000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-424000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2917000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1716000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2357000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1375000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2071000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,148 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3993000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3837000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3830000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4407000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4585000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4981000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4738000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4786000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4876000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4694000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4174000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4244000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4291000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4233000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3970000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3913000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3947000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +920,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +945,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1002,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1061,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,64 +1120,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-82000</v>
       </c>
       <c r="F15" s="3">
         <v>-82000</v>
       </c>
       <c r="G15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="H15" s="3">
         <v>-78000</v>
       </c>
       <c r="I15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="J15" s="3">
         <v>-75000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-70000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-64000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-63000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-29000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-56000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-50000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-48000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-45000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-43000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1484000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1399000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1632000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1376000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1660000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1611000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1781000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1419000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1995000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1939000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1717000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1764000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1729000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1667000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1659000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1632000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1395000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2509000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2438000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2198000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3031000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2925000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3370000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2957000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3367000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2881000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2755000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2457000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2480000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2562000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2566000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2311000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2281000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2552000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,120 +1342,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1565000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="P20" s="3">
         <v>-1687000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="E21" s="3">
         <v>509000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>156000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>478000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1015000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1469000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1221000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1549000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1092000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>971000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>965000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>918000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>942000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>948000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>847000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>841000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>963000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,120 +1517,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E23" s="3">
         <v>412000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>59000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>382000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>921000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1375000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1129000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1462000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1012000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>893000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>892000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>847000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>875000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>879000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>788000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>782000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>908000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E24" s="3">
         <v>99000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>96000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>190000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>319000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>276000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>355000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>229000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>222000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>196000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>207000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>330000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>324000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>292000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>283000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>332000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E26" s="3">
         <v>313000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>286000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>731000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1056000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>853000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1107000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>783000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>671000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>696000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>640000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>545000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>555000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>496000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>499000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>576000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E27" s="3">
         <v>303000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>275000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>731000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1056000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>853000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1107000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>783000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>671000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>696000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>640000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>545000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>555000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>496000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>499000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>576000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,12 +1912,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-160000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1870,8 +1930,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2026000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2139000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2649000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2004000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1995000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1828000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1905000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1869000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1862000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1565000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1687000</v>
       </c>
       <c r="P32" s="3">
         <v>1687000</v>
       </c>
       <c r="Q32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="R32" s="3">
         <v>1523000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1499000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1644000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E33" s="3">
         <v>303000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>275000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>731000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1056000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>853000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>783000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>671000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>696000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>640000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>385000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>555000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>496000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>499000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>576000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E35" s="3">
         <v>303000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>275000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>731000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1056000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>853000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>783000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>671000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>696000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>640000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>385000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>555000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>496000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>499000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>576000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,64 +2396,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11524000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13552000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16344000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13704000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12147000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11461000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11755000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12963000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9396000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12068000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15675000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13044000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11602000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13915000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12020000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11392000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9321000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,8 +2512,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2479,8 +2571,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,8 +2630,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2591,8 +2689,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2647,8 +2748,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,8 +2807,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2759,64 +2866,70 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2169000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2244000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2286000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2343000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2255000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2293000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2335000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2161000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2129000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1887000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1771000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1740000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1763000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1778000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1818000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1661000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,8 +3043,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2983,8 +3102,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95658000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96544000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98038000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>104826000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105943000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106388000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105384000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106792000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104545000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>99122000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95559000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95808000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92548000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91140000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89050000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>90207000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,8 +3268,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3195,8 +3325,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3251,64 +3384,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4295000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4428000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4205000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4718000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4488000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4765000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4724000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4099000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4491000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3932000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3618000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4287000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3793000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3214000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2888000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3809000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3363,64 +3502,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15775000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15771000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16069000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17248000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19866000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20363000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21244000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21891000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23996000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23741000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21721000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21015000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20799000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19899000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20709000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20194000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20147000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3475,8 +3620,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>83247000</v>
+      </c>
+      <c r="E66" s="3">
         <v>83559000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84645000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>86068000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>89738000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90823000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91654000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90675000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92114000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90549000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84664000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81203000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81574000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78146000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>76808000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74687000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>76011000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +4018,7 @@
         <v>734000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10621000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10024000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9852000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9960000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12117000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11533000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10627000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9939000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8986000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8355000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7906000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7334000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6809000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6543000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6109000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5724000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5330000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11967000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11365000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11165000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11236000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14354000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15120000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14734000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14709000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14678000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13996000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14458000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14356000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14234000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14402000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14332000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14363000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14196000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E81" s="3">
         <v>303000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>275000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>731000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1056000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>853000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>783000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>671000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>696000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>640000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>385000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>555000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>496000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>499000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>576000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97000</v>
+        <v>93000</v>
       </c>
       <c r="E83" s="3">
         <v>97000</v>
       </c>
       <c r="F83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="G83" s="3">
         <v>96000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>94000</v>
       </c>
       <c r="H83" s="3">
         <v>94000</v>
       </c>
       <c r="I83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="J83" s="3">
         <v>92000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>87000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>59000</v>
       </c>
       <c r="R83" s="3">
         <v>59000</v>
       </c>
       <c r="S83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="T83" s="3">
         <v>55000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1483000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2381000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1537000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2336000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2399000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1966000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2289000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2576000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2685000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2166000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1915000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2470000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2928000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1768000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1750000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2036000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,8 +5053,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4890,8 +5110,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3259000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2045000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3887000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>681000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3810000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>755000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1420000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,64 +5312,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-129000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-128000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-135000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-145000</v>
       </c>
       <c r="I96" s="3">
         <v>-145000</v>
       </c>
       <c r="J96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-150000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-151000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-156000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-113000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-118000</v>
       </c>
       <c r="P96" s="3">
         <v>-118000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="R96" s="3">
         <v>-105000</v>
       </c>
       <c r="S96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-107000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,64 +5546,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-848000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>68000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1814000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4173000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2579000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-313000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2380000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>281000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1284000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-829000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1866000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,60 +5664,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2021000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2630000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1137000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>926000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-424000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2917000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1716000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2357000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1375000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1148000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2071000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,155 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3742000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3993000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3837000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3830000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4407000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4585000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4981000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4738000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4786000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4876000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4694000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4174000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4244000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4291000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4233000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3970000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3913000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3947000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +871,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +933,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,8 +1081,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,67 +1143,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-80000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-82000</v>
       </c>
       <c r="G15" s="3">
         <v>-82000</v>
       </c>
       <c r="H15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="I15" s="3">
         <v>-78000</v>
       </c>
       <c r="J15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-75000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-70000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-64000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-63000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-29000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-56000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-53000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-48000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-45000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-43000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-663000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1484000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1399000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1632000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1376000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1660000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1611000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1781000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1419000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1995000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1939000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1717000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1764000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1729000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1667000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1659000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1632000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1395000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4405000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2509000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2438000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2198000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3031000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2925000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3370000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2957000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3367000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2881000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2755000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2457000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2480000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2562000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2566000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2311000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2281000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2552000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,126 +1376,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3090000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="Q20" s="3">
         <v>-1687000</v>
       </c>
       <c r="R20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1037000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>509000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>156000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>478000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1015000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1469000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1221000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1549000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1092000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>971000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>965000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>918000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>942000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>948000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>847000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>841000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>963000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1520,126 +1560,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1315000</v>
+      </c>
+      <c r="E23" s="3">
         <v>944000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>412000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>382000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>921000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1375000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1129000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1462000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1012000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>893000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>892000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>847000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>875000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>879000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>788000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>782000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>908000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E24" s="3">
         <v>206000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>99000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>96000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>190000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>319000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>276000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>355000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>229000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>222000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>196000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>207000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>330000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>324000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>292000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>283000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>332000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="E26" s="3">
         <v>738000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>313000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>286000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>731000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1056000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>853000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1107000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>783000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>671000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>696000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>640000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>545000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>555000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>496000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>499000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>576000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E27" s="3">
         <v>728000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>303000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>275000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>731000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1056000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>853000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1107000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>783000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>671000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>696000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>640000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>545000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>555000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>496000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>499000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>576000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,31 +1932,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1915,12 +1976,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1933,8 +1994,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3090000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1565000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2026000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2139000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2649000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2004000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1995000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1828000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1905000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1869000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1862000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1565000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1687000</v>
       </c>
       <c r="Q32" s="3">
         <v>1687000</v>
       </c>
       <c r="R32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="S32" s="3">
         <v>1523000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1499000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1644000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E33" s="3">
         <v>728000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>303000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>275000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>731000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1056000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>853000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>783000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>671000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>696000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>640000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>385000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>555000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>496000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>499000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>576000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E35" s="3">
         <v>728000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>303000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>275000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>731000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1056000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>853000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>783000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>671000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>696000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>640000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>385000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>555000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>496000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>499000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>576000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,67 +2483,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16620000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11524000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13552000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16344000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13704000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12147000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11461000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11755000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12963000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9396000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12068000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15675000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13044000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11602000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13915000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12020000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11392000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9321000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2515,8 +2605,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2574,8 +2667,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2633,8 +2729,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2692,8 +2791,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2751,8 +2853,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2810,8 +2915,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2869,67 +2977,73 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2203000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2169000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2244000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2286000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2343000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2255000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2293000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2335000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2161000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2129000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1887000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1771000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1740000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1763000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1778000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1818000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1661000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,8 +3163,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3105,8 +3225,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95854000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95658000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96544000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98038000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>104826000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105943000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106388000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105384000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106792000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104545000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>99122000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95559000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>95808000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92548000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91140000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89050000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>90207000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,8 +3399,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3328,8 +3459,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3387,67 +3521,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4494000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4690000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4295000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4428000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4205000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4718000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4488000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4765000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4724000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4099000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4491000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3932000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3618000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4287000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3793000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3214000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2888000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3809000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3505,67 +3645,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15160000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15775000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15771000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16069000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17248000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19866000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20363000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21244000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21891000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23996000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23741000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21721000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21015000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20799000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19899000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20709000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20194000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20147000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3623,8 +3769,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82415000</v>
+      </c>
+      <c r="E66" s="3">
         <v>83247000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83559000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84645000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>86068000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>89738000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90823000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91654000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90675000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92114000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90549000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84664000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81203000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81574000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78146000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>76808000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74687000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>76011000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4021,7 +4189,7 @@
         <v>734000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11470000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10621000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10024000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9852000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9960000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12117000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11533000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10627000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9939000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8986000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8355000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7906000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7334000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6809000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6543000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6109000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5724000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5330000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12705000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11967000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11365000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11165000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11236000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14354000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15120000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14734000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14709000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14678000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13996000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14458000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14356000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14234000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14402000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14332000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14363000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14196000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E81" s="3">
         <v>728000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>303000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>275000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>731000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1056000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>853000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>783000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>671000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>696000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>640000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>385000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>555000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>496000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>499000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>576000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>97000</v>
       </c>
       <c r="F83" s="3">
         <v>97000</v>
       </c>
       <c r="G83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="H83" s="3">
         <v>96000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>94000</v>
       </c>
       <c r="I83" s="3">
         <v>94000</v>
       </c>
       <c r="J83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K83" s="3">
         <v>92000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>87000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>73000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>67000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>59000</v>
       </c>
       <c r="S83" s="3">
         <v>59000</v>
       </c>
       <c r="T83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="U83" s="3">
         <v>55000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1839000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2086000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1483000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2381000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1537000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2336000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2399000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1966000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2289000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2576000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2685000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2166000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1915000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2470000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2928000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1768000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1750000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2036000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,8 +5274,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5113,8 +5334,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4637000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2045000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3887000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>681000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3810000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>755000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1420000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5322,58 +5556,61 @@
         <v>-128000</v>
       </c>
       <c r="E96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-129000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-128000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-135000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-145000</v>
       </c>
       <c r="J96" s="3">
         <v>-145000</v>
       </c>
       <c r="K96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-150000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-151000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-156000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-113000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-118000</v>
       </c>
       <c r="Q96" s="3">
         <v>-118000</v>
       </c>
       <c r="R96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="S96" s="3">
         <v>-105000</v>
       </c>
       <c r="T96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-107000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,67 +5792,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-979000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-848000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>68000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1814000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4173000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2579000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-313000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2380000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>281000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1284000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-829000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1866000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5667,63 +5916,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5497000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2630000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1137000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>926000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-424000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2917000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1716000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2357000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1375000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1148000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2071000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,162 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3578000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3742000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3993000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3837000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3830000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4407000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4585000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4981000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4738000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4786000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4876000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4694000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4174000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4244000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4291000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4233000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3970000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3913000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3947000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,8 +881,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +946,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,8 +973,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,8 +1036,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1101,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,70 +1166,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-82000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-80000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-82000</v>
       </c>
       <c r="H15" s="3">
         <v>-82000</v>
       </c>
       <c r="I15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="J15" s="3">
         <v>-78000</v>
       </c>
       <c r="K15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="L15" s="3">
         <v>-75000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-70000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-64000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-63000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-29000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-50000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-53000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-48000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-45000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-43000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1828000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-663000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1484000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1399000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1632000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1376000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1660000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1611000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1781000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1419000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1995000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1939000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1717000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1764000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1729000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1667000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1659000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1632000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1395000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5406000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4405000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2509000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2438000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2198000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3031000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2925000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3370000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2957000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3367000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2881000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2755000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2457000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2480000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2562000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2566000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2311000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2281000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2552000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,132 +1410,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3765000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3090000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="R20" s="3">
         <v>-1687000</v>
       </c>
       <c r="S20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1410000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1037000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>509000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>156000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>478000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1015000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1469000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1221000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1549000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1092000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>971000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>965000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>918000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>942000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>948000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>847000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>841000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>963000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1563,132 +1603,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1315000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>944000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>412000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>382000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>921000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1375000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1129000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1462000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1012000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>893000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>892000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>847000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>875000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>879000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>788000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>782000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>908000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E24" s="3">
         <v>290000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>206000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>99000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>96000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>190000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>319000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>276000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>355000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>229000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>222000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>196000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>207000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>330000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>324000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>292000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>283000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>332000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1025000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>738000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>313000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>286000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>731000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1056000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>853000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1107000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>783000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>671000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>696000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>640000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>545000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>555000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>496000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>499000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>576000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1014000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>728000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>303000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>275000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>731000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1056000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>853000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1107000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>783000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>671000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>696000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>640000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>545000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>555000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>496000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>499000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>576000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1961,8 +2022,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1979,12 +2040,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-160000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1997,8 +2058,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3765000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3090000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1565000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2026000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2139000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2649000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2004000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1995000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1828000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1905000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1869000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1862000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1565000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1687000</v>
       </c>
       <c r="R32" s="3">
         <v>1687000</v>
       </c>
       <c r="S32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="T32" s="3">
         <v>1523000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1499000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1644000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1014000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>728000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>303000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>275000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>731000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1056000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>853000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>783000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>671000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>696000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>640000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>385000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>555000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>496000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>499000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>576000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1014000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>728000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>303000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>275000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>731000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1056000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>853000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>783000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>671000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>696000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>640000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>385000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>555000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>496000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>499000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>576000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11117000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16620000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11524000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13552000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16344000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13704000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12147000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11461000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11755000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12963000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9396000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12068000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15675000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13044000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11602000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13915000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12020000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11392000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9321000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,8 +2698,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2670,8 +2763,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2732,8 +2828,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2794,8 +2893,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2856,8 +2958,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2918,8 +3023,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2980,70 +3088,76 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2273000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2203000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2169000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2244000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2286000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2343000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2255000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2293000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2335000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2161000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2129000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1887000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1771000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1740000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1763000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1778000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1818000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1661000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,8 +3283,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3228,8 +3348,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92017000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95854000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95658000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96544000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98038000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104826000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105943000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106388000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105384000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106792000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104545000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>99122000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>95559000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95808000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92548000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91140000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89050000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>90207000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,8 +3530,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3462,8 +3593,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3524,70 +3658,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4522000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4494000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4690000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4295000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4428000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4205000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4718000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4488000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4765000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4724000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4099000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4491000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3932000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3618000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4287000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3793000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3214000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2888000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3809000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3648,70 +3788,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13457000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15160000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15775000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15771000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16069000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17248000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19866000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20363000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21244000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21891000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23996000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23741000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21721000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21015000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20799000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19899000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20709000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20194000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20147000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3772,8 +3918,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77820000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82415000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>83247000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83559000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84645000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>86068000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>89738000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90823000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91654000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90675000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92114000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90549000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84664000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81203000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81574000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78146000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>76808000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74687000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>76011000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4192,7 +4360,7 @@
         <v>734000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12560000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11470000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10621000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10024000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9852000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9960000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12117000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11533000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10627000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9939000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8986000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8355000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7906000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7334000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6809000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6543000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6109000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5724000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5330000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13463000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12705000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11967000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11365000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11165000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11236000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14354000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15120000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14734000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14709000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14678000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13996000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14458000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14356000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14234000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14402000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14332000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14363000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14196000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1014000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>728000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>303000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>275000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>731000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1056000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>853000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>783000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>671000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>696000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>640000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>385000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>555000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>496000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>499000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>576000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E83" s="3">
         <v>95000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>93000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>97000</v>
       </c>
       <c r="G83" s="3">
         <v>97000</v>
       </c>
       <c r="H83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="I83" s="3">
         <v>96000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>94000</v>
       </c>
       <c r="J83" s="3">
         <v>94000</v>
       </c>
       <c r="K83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="L83" s="3">
         <v>92000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>87000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>67000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>59000</v>
       </c>
       <c r="T83" s="3">
         <v>59000</v>
       </c>
       <c r="U83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="V83" s="3">
         <v>55000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1839000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2086000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1483000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2381000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1537000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2336000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2399000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1966000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2289000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2576000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2685000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2166000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1915000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2470000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2928000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1768000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1750000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2036000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,8 +5495,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5337,8 +5558,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1853000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4637000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2045000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3887000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>681000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3810000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>755000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1420000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,8 +5780,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,58 +5793,61 @@
         <v>-128000</v>
       </c>
       <c r="F96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-129000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-128000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-135000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-145000</v>
       </c>
       <c r="K96" s="3">
         <v>-145000</v>
       </c>
       <c r="L96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-150000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-151000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-156000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-113000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-118000</v>
       </c>
       <c r="R96" s="3">
         <v>-118000</v>
       </c>
       <c r="S96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="T96" s="3">
         <v>-105000</v>
       </c>
       <c r="U96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-107000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,70 +6038,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5148000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-979000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-848000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>68000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1814000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4173000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2579000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2380000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>281000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1284000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-829000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1866000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5919,66 +6168,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5560000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5497000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2630000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1137000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>926000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-424000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2917000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1716000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2357000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1375000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1148000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2071000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,169 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3898000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3578000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3742000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3993000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3837000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3830000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4407000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4585000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4981000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4738000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4786000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4876000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4694000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4174000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4244000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4291000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4233000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3970000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3913000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3947000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,8 +891,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +959,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +987,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1039,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1121,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,73 +1189,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-83000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-82000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-80000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-82000</v>
       </c>
       <c r="I15" s="3">
         <v>-82000</v>
       </c>
       <c r="J15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="K15" s="3">
         <v>-78000</v>
       </c>
       <c r="L15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="M15" s="3">
         <v>-75000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-70000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-64000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-63000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-56000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-50000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-53000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-48000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-45000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-43000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-1828000</v>
+        <v>265000</v>
       </c>
       <c r="E17" s="3">
-        <v>-663000</v>
+        <v>72000</v>
       </c>
       <c r="F17" s="3">
+        <v>637000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1484000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1399000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1632000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1376000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1660000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1611000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1781000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1419000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1995000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1939000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1717000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1764000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1729000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1667000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1659000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1632000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1395000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5406000</v>
+        <v>3633000</v>
       </c>
       <c r="E18" s="3">
-        <v>4405000</v>
+        <v>3506000</v>
       </c>
       <c r="F18" s="3">
+        <v>3105000</v>
+      </c>
+      <c r="G18" s="3">
         <v>2509000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2438000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2198000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3031000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2925000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3370000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2957000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3367000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2881000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2755000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2457000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2480000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2562000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2566000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2311000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2281000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2552000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,138 +1444,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3765000</v>
+        <v>-2133000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3090000</v>
+        <v>-1865000</v>
       </c>
       <c r="F20" s="3">
+        <v>-1790000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="S20" s="3">
         <v>-1687000</v>
       </c>
       <c r="T20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1738000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1410000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1037000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>509000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>156000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>478000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1015000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1469000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1221000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1549000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1092000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>971000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>965000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>918000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>942000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>948000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>847000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>841000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>963000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1606,138 +1646,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1641000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1315000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>944000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>412000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>59000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>382000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>921000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1375000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1129000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1462000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1012000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>893000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>892000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>847000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>875000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>879000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>788000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>782000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>908000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E24" s="3">
         <v>399000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>290000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>206000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>96000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>190000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>319000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>276000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>355000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>229000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>222000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>196000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>207000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>330000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>324000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>292000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>283000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>332000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1242000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1025000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>738000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>313000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>286000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>731000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1056000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>853000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1107000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>783000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>671000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>696000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>640000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>545000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>555000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>496000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>499000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>576000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1232000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1014000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>728000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>303000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>275000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>731000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1056000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>853000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>783000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>671000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>696000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>640000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>545000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>555000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>496000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>499000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>576000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1996,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2043,12 +2104,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-160000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2061,8 +2122,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3765000</v>
+        <v>2133000</v>
       </c>
       <c r="E32" s="3">
-        <v>3090000</v>
+        <v>1865000</v>
       </c>
       <c r="F32" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="G32" s="3">
         <v>1565000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2026000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2139000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2649000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2004000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1995000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1828000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1905000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1869000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1862000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1687000</v>
       </c>
       <c r="S32" s="3">
         <v>1687000</v>
       </c>
       <c r="T32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="U32" s="3">
         <v>1523000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1499000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1644000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1232000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1014000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>728000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>303000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>275000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>731000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1056000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>853000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>783000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>671000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>696000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>640000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>385000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>555000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>496000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>499000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>576000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1232000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1014000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>728000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>303000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>275000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>731000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1056000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>853000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>783000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>671000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>696000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>640000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>385000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>555000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>496000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>499000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>576000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,73 +2657,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9806000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11117000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16620000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11524000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13552000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16344000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13704000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12147000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11461000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11755000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12963000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9396000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12068000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15675000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13044000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11602000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13915000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12020000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11392000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9321000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2701,8 +2791,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2766,8 +2859,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2831,8 +2927,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2896,8 +2995,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2961,8 +3063,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3026,8 +3131,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3091,73 +3199,79 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2195000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2203000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2273000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2203000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2169000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2244000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2286000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2343000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2255000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2293000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2335000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2161000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2129000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1887000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1771000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1740000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1763000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1778000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1818000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1661000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3286,8 +3403,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3351,8 +3471,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91937000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92017000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95854000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95948000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95658000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96544000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98038000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104826000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105943000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106388000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105384000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106792000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104545000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>99122000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95559000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95808000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92548000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91140000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89050000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>90207000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3531,8 +3661,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3596,8 +3727,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3661,73 +3795,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4888000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4522000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4494000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4690000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4295000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4428000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4205000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4718000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4488000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4765000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4724000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4099000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4491000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3932000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3618000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4287000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3793000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3214000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2888000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3809000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3791,73 +3931,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12760000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13457000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15160000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15775000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15771000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16069000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17248000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19866000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20363000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21244000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21891000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23996000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23741000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21721000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21015000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20799000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19899000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20709000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20194000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20147000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3921,8 +4067,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78001000</v>
+      </c>
+      <c r="E66" s="3">
         <v>77820000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82415000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83247000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83559000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>84645000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>86068000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>89738000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90823000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91654000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90675000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92114000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90549000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84664000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81203000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>81574000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78146000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>76808000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>74687000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>76011000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4363,7 +4531,7 @@
         <v>734000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13562000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12560000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11470000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10621000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10024000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9852000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9960000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12117000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11533000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10627000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9939000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8986000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8355000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7906000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7334000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6809000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6543000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6109000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5724000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5330000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13202000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13463000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12705000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11967000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11365000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11165000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11236000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14354000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15120000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14734000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14709000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14678000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13996000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14458000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14356000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14234000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14402000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14332000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14363000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14196000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1232000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1014000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>728000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>303000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>275000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>731000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1056000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>853000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>783000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>671000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>696000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>640000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>385000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>555000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>496000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>499000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>576000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E83" s="3">
         <v>97000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>95000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>93000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>97000</v>
       </c>
       <c r="H83" s="3">
         <v>97000</v>
       </c>
       <c r="I83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="J83" s="3">
         <v>96000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>94000</v>
       </c>
       <c r="K83" s="3">
         <v>94000</v>
       </c>
       <c r="L83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="M83" s="3">
         <v>92000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>87000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>67000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>69000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>59000</v>
       </c>
       <c r="U83" s="3">
         <v>59000</v>
       </c>
       <c r="V83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="W83" s="3">
         <v>55000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1815000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1441000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1839000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2086000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1483000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2381000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1537000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2336000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2399000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1966000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2289000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2576000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2685000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2166000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1915000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2470000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2928000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1768000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1750000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2036000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,8 +5716,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5561,8 +5782,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1834000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4637000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2045000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3887000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>681000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3810000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>755000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1420000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5781,13 +6014,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-128000</v>
+        <v>-124000</v>
       </c>
       <c r="E96" s="3">
         <v>-128000</v>
@@ -5796,58 +6030,61 @@
         <v>-128000</v>
       </c>
       <c r="G96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-129000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-128000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-135000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-145000</v>
       </c>
       <c r="L96" s="3">
         <v>-145000</v>
       </c>
       <c r="M96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-150000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-151000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-156000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-118000</v>
       </c>
       <c r="S96" s="3">
         <v>-118000</v>
       </c>
       <c r="T96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="U96" s="3">
         <v>-105000</v>
       </c>
       <c r="V96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-107000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6041,73 +6284,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1623000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-979000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-848000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>68000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1814000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4173000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2579000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-313000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2380000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>281000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1284000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-829000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1866000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6171,69 +6420,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1642000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5497000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2630000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1137000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>926000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-424000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2917000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1716000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2357000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1375000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1148000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2071000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4053000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3898000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3578000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3742000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3993000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3837000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3830000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4407000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4585000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4981000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4738000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4786000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4876000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4694000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4174000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4244000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4291000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4233000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3970000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3913000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3947000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,8 +900,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,8 +1140,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,76 +1211,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-80000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-83000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-82000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-80000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-82000</v>
       </c>
       <c r="J15" s="3">
         <v>-82000</v>
       </c>
       <c r="K15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="L15" s="3">
         <v>-78000</v>
       </c>
       <c r="M15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="N15" s="3">
         <v>-75000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-70000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-64000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-29000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-56000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-50000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-53000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-48000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-45000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-43000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>784000</v>
+      </c>
+      <c r="E17" s="3">
         <v>265000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>637000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1484000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1399000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1632000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1376000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1660000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1611000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1781000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1419000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1995000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1717000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1764000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1729000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1667000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1659000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1632000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1395000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3269000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3633000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3506000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3105000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2509000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2438000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2198000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3031000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2925000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3370000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2957000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3367000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2881000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2755000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2457000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2480000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2562000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2566000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2311000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2281000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2552000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,144 +1477,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2222000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="T20" s="3">
         <v>-1687000</v>
       </c>
       <c r="U20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1593000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1738000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1410000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1037000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>509000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>156000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>478000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1015000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1469000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1221000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1549000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1092000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>971000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>965000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>918000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>942000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>948000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>847000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>841000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>963000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,144 +1688,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1641000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1315000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>944000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>412000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>59000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>382000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>921000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1375000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1129000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1462000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1012000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>893000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>892000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>847000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>875000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>879000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>788000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>782000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>908000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E24" s="3">
         <v>359000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>399000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>290000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>206000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>99000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>96000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>190000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>319000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>276000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>355000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>229000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>222000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>196000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>207000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>330000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>324000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>292000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>283000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>332000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>813000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1141000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1242000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1025000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>738000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>313000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>286000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>731000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1056000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>853000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1107000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>783000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>671000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>696000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>640000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>545000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>555000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>496000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>499000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>576000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1130000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1232000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1014000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>728000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>303000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>275000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>731000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1056000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>853000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1107000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>783000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>671000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>696000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>640000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>545000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>555000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>496000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>499000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>576000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2149,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2107,12 +2167,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-160000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2125,8 +2185,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2133000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1865000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1790000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1565000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2026000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2139000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2649000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2004000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1995000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1828000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1905000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1869000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1862000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1565000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1687000</v>
       </c>
       <c r="T32" s="3">
         <v>1687000</v>
       </c>
       <c r="U32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="V32" s="3">
         <v>1523000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1499000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1644000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1130000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1232000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1014000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>728000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>303000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>275000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>731000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1056000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>853000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>783000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>671000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>696000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>640000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>385000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>555000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>496000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>499000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>576000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1130000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1232000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1014000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>728000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>303000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>275000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>731000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1056000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>853000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>783000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>671000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>696000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>640000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>385000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>555000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>496000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>499000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>576000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,76 +2743,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8337000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9806000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11117000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16620000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11524000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13552000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16344000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13704000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12147000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11461000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11755000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12963000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9396000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12068000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15675000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13044000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11602000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13915000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12020000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11392000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9321000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2794,8 +2883,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2862,8 +2954,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2930,8 +3025,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2998,8 +3096,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3066,8 +3167,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3134,8 +3238,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3202,76 +3309,82 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2195000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2203000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2273000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2203000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2169000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2244000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2286000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2343000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2255000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2293000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2335000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2161000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2129000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1887000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1771000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1740000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1763000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1778000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1818000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1661000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,8 +3522,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3474,8 +3593,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95748000</v>
+      </c>
+      <c r="E54" s="3">
         <v>91937000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92017000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95854000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95948000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95658000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96544000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98038000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>104826000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105943000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106388000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105384000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106792000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104545000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>99122000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95559000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95808000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92548000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91140000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89050000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>90207000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,8 +3791,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3730,8 +3860,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3798,76 +3931,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5316000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4888000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4522000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4494000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4690000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4295000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4428000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4205000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4718000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4488000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4765000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4724000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4099000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4491000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3932000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3618000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4287000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3793000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3214000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2888000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3809000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3934,76 +4073,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14507000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12760000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13457000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15160000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15775000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15771000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16069000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17248000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19866000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20363000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21244000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21891000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23996000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23741000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21721000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21015000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20799000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19899000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20709000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20194000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20147000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4070,8 +4215,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82093000</v>
+      </c>
+      <c r="E66" s="3">
         <v>78001000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77820000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82415000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>83247000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83559000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>84645000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>86068000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89738000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90823000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91654000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90675000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92114000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90549000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84664000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>81203000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81574000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78146000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>76808000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>74687000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>76011000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4534,7 +4701,7 @@
         <v>734000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14245000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13562000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12560000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11470000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10621000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10024000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9852000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9960000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12117000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11533000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10627000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9939000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8986000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8355000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7906000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7334000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6809000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6543000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6109000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5724000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5330000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12921000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13202000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13463000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12705000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11967000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11365000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11165000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11236000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14354000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15120000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14734000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14709000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14678000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13996000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14458000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14356000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14234000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14402000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14332000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14363000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14196000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1130000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1232000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1014000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>728000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>303000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>275000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>731000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1056000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>853000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>783000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>671000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>696000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>640000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>385000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>555000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>496000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>499000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>576000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>97000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>95000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>93000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>97000</v>
       </c>
       <c r="I83" s="3">
         <v>97000</v>
       </c>
       <c r="J83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K83" s="3">
         <v>96000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>94000</v>
       </c>
       <c r="L83" s="3">
         <v>94000</v>
       </c>
       <c r="M83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="N83" s="3">
         <v>92000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>87000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>73000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>67000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>69000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>59000</v>
       </c>
       <c r="V83" s="3">
         <v>59000</v>
       </c>
       <c r="W83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="X83" s="3">
         <v>55000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1815000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1441000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1839000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2086000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1483000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2381000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1537000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2336000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2399000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1966000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2289000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2576000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2685000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2166000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1915000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2470000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2928000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1768000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1750000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2036000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,8 +5936,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5785,8 +6005,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5764000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4637000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2045000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3887000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>681000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3810000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>755000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1420000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,16 +6247,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-128000</v>
       </c>
       <c r="F96" s="3">
         <v>-128000</v>
@@ -6033,58 +6266,61 @@
         <v>-128000</v>
       </c>
       <c r="H96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-129000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-128000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-135000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-145000</v>
       </c>
       <c r="M96" s="3">
         <v>-145000</v>
       </c>
       <c r="N96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-150000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-151000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-113000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-118000</v>
       </c>
       <c r="T96" s="3">
         <v>-118000</v>
       </c>
       <c r="U96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="V96" s="3">
         <v>-105000</v>
       </c>
       <c r="W96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-107000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,76 +6529,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-979000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-848000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>68000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1814000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4173000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2579000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-313000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2380000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>281000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1284000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-829000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1866000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6423,72 +6671,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1214000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5497000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2630000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1137000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>926000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-424000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2917000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1716000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2357000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1375000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1148000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2071000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,182 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4022000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4053000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3898000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3578000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3742000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3993000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3837000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3830000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4407000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4585000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4981000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4738000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4786000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4876000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4694000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4174000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4244000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4291000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4233000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3970000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3913000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3947000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,8 +910,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +984,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1001,8 +1014,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1072,8 +1086,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,8 +1160,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1214,79 +1234,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-94000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-80000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-83000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-82000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-80000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-82000</v>
       </c>
       <c r="K15" s="3">
         <v>-82000</v>
       </c>
       <c r="L15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="M15" s="3">
         <v>-78000</v>
       </c>
       <c r="N15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-75000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-70000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-63000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-29000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-56000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-50000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-53000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-48000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-45000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E17" s="3">
         <v>784000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>265000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>637000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1484000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1399000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1632000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1376000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1660000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1611000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1781000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1419000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1995000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1939000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1717000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1764000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1729000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1667000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1659000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1632000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1395000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3268000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3269000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3633000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3506000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3105000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2509000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2438000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2198000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3031000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2925000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3370000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2957000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3367000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2881000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2755000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2457000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2480000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2562000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2566000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2311000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2281000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2552000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,150 +1511,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2035000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="U20" s="3">
         <v>-1687000</v>
       </c>
       <c r="V20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1152000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1593000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1738000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1410000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1037000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>509000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>156000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>478000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1015000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1469000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1221000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1549000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1092000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>971000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>965000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>918000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>942000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>948000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>847000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>841000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>963000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1691,150 +1731,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1047000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1641000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1315000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>944000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>412000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>59000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>382000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>921000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1375000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1129000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1462000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1012000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>893000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>892000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>847000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>875000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>879000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>788000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>782000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>908000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E24" s="3">
         <v>234000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>359000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>399000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>290000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>206000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>99000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>190000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>319000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>276000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>355000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>229000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>222000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>196000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>207000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>330000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>324000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>292000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>283000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>332000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1904,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E26" s="3">
         <v>813000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1141000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1242000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1025000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>738000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>313000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>286000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>731000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1056000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>853000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1107000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>783000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>671000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>696000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>640000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>545000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>555000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>496000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>499000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>576000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E27" s="3">
         <v>803000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1130000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1232000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1014000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>728000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>303000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>275000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>731000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1056000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>853000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1107000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>783000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>671000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>696000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>640000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>545000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>555000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>496000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>499000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>576000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2117,8 +2175,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2152,8 +2213,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2170,12 +2231,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-160000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2188,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2330,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2222000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2133000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1865000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1790000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1565000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2026000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2139000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2649000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2004000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1995000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1828000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1905000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1869000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1862000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1565000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1687000</v>
       </c>
       <c r="U32" s="3">
         <v>1687000</v>
       </c>
       <c r="V32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="W32" s="3">
         <v>1523000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1499000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1644000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E33" s="3">
         <v>803000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1130000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1232000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1014000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>728000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>303000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>275000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>731000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1056000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>853000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>783000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>671000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>696000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>640000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>385000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>555000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>496000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>499000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>576000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E35" s="3">
         <v>803000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1130000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1232000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1014000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>728000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>303000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>275000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>731000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1056000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>853000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>783000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>671000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>696000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>640000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>385000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>555000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>496000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>499000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>576000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2744,79 +2830,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10541000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8337000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9806000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11117000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16620000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11524000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13552000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16344000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13704000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12147000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11461000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11755000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12963000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9396000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12068000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15675000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13044000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11602000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13915000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12020000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11392000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9321000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2886,8 +2976,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2957,8 +3050,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3028,8 +3124,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3099,8 +3198,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3170,8 +3272,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3241,8 +3346,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3312,79 +3420,85 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2254000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2273000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2195000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2203000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2273000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2203000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2169000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2244000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2286000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2343000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2255000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2293000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2335000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2161000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2129000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1887000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1771000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1740000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1763000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1778000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1818000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1661000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3525,8 +3642,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3596,8 +3716,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3667,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95267000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95748000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91937000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92017000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95854000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95948000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95658000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96544000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98038000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104826000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105943000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106388000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105384000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106792000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104545000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>99122000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95559000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95808000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92548000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91140000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>89050000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>90207000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3765,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,8 +3922,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3863,8 +3994,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3934,79 +4068,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4914000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5316000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4888000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4522000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4494000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4690000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4295000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4428000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4205000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4718000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4488000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4765000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4724000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4099000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4491000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3932000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3618000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4287000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3793000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3214000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2888000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3809000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4076,79 +4216,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13360000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14507000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12760000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13457000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15160000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15775000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15771000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16069000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17248000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19866000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20363000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21244000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21891000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23996000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23741000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21721000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21015000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20799000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19899000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20709000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20194000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20147000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4218,8 +4364,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4289,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4431,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81849000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82093000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78001000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77820000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82415000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>83247000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83559000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84645000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86068000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89738000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90823000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91654000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90675000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92114000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90549000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84664000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81203000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81574000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78146000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>76808000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>74687000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>76011000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4529,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4600,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4704,7 +4872,7 @@
         <v>734000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4742,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4813,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15003000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14245000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13562000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12560000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11470000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10621000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10024000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9852000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9960000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12117000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11533000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10627000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9939000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8986000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8355000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7906000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7334000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6809000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6543000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6109000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5724000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5330000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4955,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5026,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12684000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12921000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13202000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13463000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12705000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11967000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11365000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11165000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11236000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14354000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15120000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14734000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14709000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14678000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13996000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14458000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14356000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14234000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14402000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14332000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14363000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14196000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E81" s="3">
         <v>803000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1130000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1232000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1014000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>728000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>303000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>275000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>731000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1056000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>853000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>783000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>671000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>696000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>640000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>385000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>555000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>496000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>499000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>576000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E83" s="3">
         <v>105000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>93000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>97000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>95000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>97000</v>
       </c>
       <c r="J83" s="3">
         <v>97000</v>
       </c>
       <c r="K83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="L83" s="3">
         <v>96000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>94000</v>
       </c>
       <c r="M83" s="3">
         <v>94000</v>
       </c>
       <c r="N83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="O83" s="3">
         <v>92000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>87000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>71000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>67000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>69000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>59000</v>
       </c>
       <c r="W83" s="3">
         <v>59000</v>
       </c>
       <c r="X83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>55000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5555,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5626,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5697,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5768,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5839,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2004000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1815000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1441000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1839000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2086000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1483000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2381000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1537000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2336000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2399000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1966000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2289000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2576000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2685000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2166000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1915000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2470000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2928000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1768000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1750000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2036000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5937,8 +6157,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6008,8 +6229,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6079,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6150,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4637000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2045000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3887000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>681000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3810000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>755000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1420000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6248,19 +6481,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-120000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-128000</v>
       </c>
       <c r="G96" s="3">
         <v>-128000</v>
@@ -6269,58 +6503,61 @@
         <v>-128000</v>
       </c>
       <c r="I96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-129000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-128000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-135000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-145000</v>
       </c>
       <c r="N96" s="3">
         <v>-145000</v>
       </c>
       <c r="O96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-150000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-156000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-113000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-118000</v>
       </c>
       <c r="U96" s="3">
         <v>-118000</v>
       </c>
       <c r="V96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="W96" s="3">
         <v>-105000</v>
       </c>
       <c r="X96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-107000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6390,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6461,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6532,79 +6775,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-976000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2546000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-979000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-848000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>68000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1814000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4173000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2579000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-313000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2380000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>281000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1284000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-829000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1866000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6674,75 +6923,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2238000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5497000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2630000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1137000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>926000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-424000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2917000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1716000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2357000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1375000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1148000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2071000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,189 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4074000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4022000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4053000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3898000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3578000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3742000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3993000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3837000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3830000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4407000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4585000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4981000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4738000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4786000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4876000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4694000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4174000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4244000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4291000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4233000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3970000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3913000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3947000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,8 +920,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +997,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1028,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1089,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,8 +1180,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,82 +1257,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-93000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-94000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-80000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-83000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-82000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-80000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-82000</v>
       </c>
       <c r="L15" s="3">
         <v>-82000</v>
       </c>
       <c r="M15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="N15" s="3">
         <v>-78000</v>
       </c>
       <c r="O15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-75000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-64000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-63000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-29000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-56000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-50000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-53000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-48000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E17" s="3">
         <v>754000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>784000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>265000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>637000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1484000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1399000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1632000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1376000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1660000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1611000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1781000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1995000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1939000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1717000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1764000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1729000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1667000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1659000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1632000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1395000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3078000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3268000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3269000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3633000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3506000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3105000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2509000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2438000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2198000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3031000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2925000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3370000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2957000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3367000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2881000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2755000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2457000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2480000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2562000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2566000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2311000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2281000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2552000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1512,156 +1545,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2012000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2035000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="V20" s="3">
         <v>-1687000</v>
       </c>
       <c r="W20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1172000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1340000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1152000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1593000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1738000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1410000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1037000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>509000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>156000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>478000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1015000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1469000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1221000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1092000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>971000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>965000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>918000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>942000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>948000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>847000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>841000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>963000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1734,156 +1774,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1233000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1047000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1641000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1315000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>944000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>412000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>59000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>382000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>921000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1375000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1129000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1462000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1012000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>893000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>892000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>847000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>875000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>879000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>788000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>782000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>908000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E24" s="3">
         <v>301000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>234000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>359000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>399000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>290000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>206000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>96000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>190000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>319000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>276000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>355000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>229000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>222000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>196000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>207000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>330000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>324000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>292000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>283000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>332000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E26" s="3">
         <v>932000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>813000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1141000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1242000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1025000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>738000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>313000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>286000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>731000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1056000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>853000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>783000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>671000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>696000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>640000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>545000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>555000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>496000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>499000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>576000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E27" s="3">
         <v>922000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>803000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1130000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1232000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1014000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>728000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>303000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>275000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>731000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1056000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>853000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>783000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>671000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>696000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>640000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>545000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>555000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>496000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>499000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>576000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,8 +2277,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2234,12 +2295,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-160000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2252,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2012000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2035000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2222000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2133000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1865000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1790000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1565000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2026000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2139000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2649000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2004000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1995000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1828000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1905000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1869000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1862000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1565000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1687000</v>
       </c>
       <c r="V32" s="3">
         <v>1687000</v>
       </c>
       <c r="W32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="X32" s="3">
         <v>1523000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1499000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1644000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E33" s="3">
         <v>922000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>803000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1130000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1232000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1014000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>728000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>303000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>275000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>731000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1056000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>853000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>783000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>671000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>696000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>640000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>385000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>555000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>496000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>499000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>576000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E35" s="3">
         <v>922000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>803000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1130000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1232000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1014000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>728000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>303000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>275000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>731000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1056000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>853000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>783000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>671000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>696000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>640000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>385000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>555000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>496000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>499000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>576000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10682000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10541000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8337000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9806000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11117000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16620000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11524000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13552000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16344000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13704000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12147000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11461000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11755000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12963000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9396000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12068000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15675000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13044000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11602000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13915000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12020000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11392000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9321000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2979,8 +3069,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3053,8 +3146,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3127,8 +3223,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3201,8 +3300,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3275,8 +3377,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3349,8 +3454,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3423,82 +3531,88 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2254000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2273000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2195000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2203000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2273000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2203000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2169000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2244000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2286000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2343000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2255000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2293000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2335000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2161000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2129000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1887000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1771000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1740000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1763000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1778000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1818000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1661000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,8 +3762,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3719,8 +3839,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95200000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95267000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95748000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91937000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92017000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95854000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95948000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95658000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96544000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98038000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104826000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105943000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106388000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105384000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>106792000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104545000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>99122000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95559000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95808000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92548000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91140000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>89050000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>90207000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,8 +4053,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3997,8 +4128,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4071,82 +4205,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4941000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4914000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5316000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4888000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4522000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4494000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4690000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4295000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4428000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4205000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4718000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4488000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4765000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4724000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4099000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4491000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3932000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3618000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4287000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3793000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3214000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2888000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3809000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4219,82 +4359,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12157000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13360000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14507000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12760000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13457000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15160000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15775000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15771000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16069000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17248000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19866000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20363000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21244000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21891000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23996000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23741000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21721000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21015000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20799000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19899000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20709000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20194000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20147000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4367,8 +4513,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4515,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81807000</v>
+      </c>
+      <c r="E66" s="3">
         <v>81849000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82093000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78001000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77820000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82415000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>83247000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83559000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84645000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86068000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89738000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90823000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91654000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90675000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>92114000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90549000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>84664000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81203000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>81574000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>78146000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>76808000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>74687000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>76011000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4875,7 +5043,7 @@
         <v>734000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4913,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15679000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15003000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14245000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13562000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12560000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11470000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10621000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10024000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9852000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9960000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12117000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11533000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10627000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9939000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8986000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8355000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7906000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7334000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6809000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6543000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6109000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5724000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5330000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12659000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12684000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12921000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13202000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13463000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12705000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11967000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11365000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11165000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11236000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14354000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15120000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14734000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14709000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14678000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13996000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14458000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14356000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14234000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14402000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14332000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14363000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14196000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E81" s="3">
         <v>922000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>803000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1130000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1232000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1014000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>728000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>303000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>275000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>731000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1056000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>853000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>783000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>671000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>696000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>640000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>385000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>555000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>496000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>499000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>576000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E83" s="3">
         <v>107000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>93000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>97000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>97000</v>
       </c>
       <c r="K83" s="3">
         <v>97000</v>
       </c>
       <c r="L83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="M83" s="3">
         <v>96000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>94000</v>
       </c>
       <c r="N83" s="3">
         <v>94000</v>
       </c>
       <c r="O83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="P83" s="3">
         <v>92000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>87000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>80000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>71000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>67000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>69000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>59000</v>
       </c>
       <c r="X83" s="3">
         <v>59000</v>
       </c>
       <c r="Y83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>55000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1817000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1396000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2004000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1815000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1441000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1839000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2086000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1483000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2381000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1537000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2336000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2399000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1966000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2289000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2576000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2685000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2166000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1915000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2470000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2928000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1768000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1750000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2036000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,8 +6378,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6232,8 +6453,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1052000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1818000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4637000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2045000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3887000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>681000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3810000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>755000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1420000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,22 +6715,23 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-114000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-120000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-128000</v>
       </c>
       <c r="H96" s="3">
         <v>-128000</v>
@@ -6506,58 +6740,61 @@
         <v>-128000</v>
       </c>
       <c r="J96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-129000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-128000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-135000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-145000</v>
       </c>
       <c r="O96" s="3">
         <v>-145000</v>
       </c>
       <c r="P96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-151000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-156000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-113000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-118000</v>
       </c>
       <c r="V96" s="3">
         <v>-118000</v>
       </c>
       <c r="W96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="X96" s="3">
         <v>-105000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-107000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,82 +7021,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-899000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-976000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2546000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-979000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-848000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>68000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1814000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4173000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2579000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-313000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2380000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>281000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1284000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-829000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1866000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6926,78 +7175,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2238000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5497000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2630000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1137000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>926000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-424000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2917000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1716000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2357000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1375000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1148000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2071000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,196 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4342000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4074000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4022000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4053000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3898000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3578000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3742000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3993000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3837000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3830000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4407000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4585000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4981000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4738000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4786000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4876000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4694000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4174000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4244000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4291000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4233000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3970000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3913000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3947000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,8 +930,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1010,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,8 +1042,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,8 +1200,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1260,85 +1280,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-92000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-93000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-94000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-80000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-83000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-82000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-80000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-82000</v>
       </c>
       <c r="M15" s="3">
         <v>-82000</v>
       </c>
       <c r="N15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="O15" s="3">
         <v>-78000</v>
       </c>
       <c r="P15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-70000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-64000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-63000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-29000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-56000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-50000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-53000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E17" s="3">
         <v>996000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>754000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>784000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>265000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>637000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1484000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1399000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1632000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1376000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1660000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1611000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1781000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1419000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1995000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1939000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1717000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1764000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1729000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1667000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1659000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1632000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1395000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3078000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3268000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3269000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3633000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3506000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3105000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2509000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2438000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2198000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3031000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2925000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3370000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2957000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3367000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2881000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2755000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2457000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2480000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2562000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2566000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2311000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2281000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2552000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,162 +1579,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2077000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2012000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2035000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="W20" s="3">
         <v>-1687000</v>
       </c>
       <c r="X20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1172000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1340000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1152000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1593000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1738000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1410000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1037000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>509000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>156000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>478000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1015000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1469000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1221000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1549000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1092000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>971000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>965000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>918000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>942000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>948000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>847000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>841000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>963000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1777,162 +1817,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1066000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1233000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1047000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1641000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1315000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>944000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>412000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>59000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>382000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>921000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1375000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1129000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1462000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1012000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>893000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>892000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>847000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>875000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>879000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>788000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>782000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>908000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E24" s="3">
         <v>262000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>301000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>234000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>359000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>399000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>290000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>206000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>190000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>319000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>276000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>355000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>229000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>222000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>196000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>207000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>330000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>324000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>292000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>283000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>332000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E26" s="3">
         <v>804000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>932000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>813000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1141000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1242000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1025000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>738000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>313000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>286000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>731000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1056000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>853000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1107000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>783000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>671000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>696000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>640000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>545000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>555000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>496000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>499000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>576000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E27" s="3">
         <v>793000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>922000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>803000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1130000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1232000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1014000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>728000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>303000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>275000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>731000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1056000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>853000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1107000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>783000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>671000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>696000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>640000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>545000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>555000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>496000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>499000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>576000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2298,12 +2359,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-160000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2316,8 +2377,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2077000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2012000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2035000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2222000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2133000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1865000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1790000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1565000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2026000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2139000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2649000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2004000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1995000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1828000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1905000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1869000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1862000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1565000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1687000</v>
       </c>
       <c r="W32" s="3">
         <v>1687000</v>
       </c>
       <c r="X32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1523000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1499000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1644000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E33" s="3">
         <v>793000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>922000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>803000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1130000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1232000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1014000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>728000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>303000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>275000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>731000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1056000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>853000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>783000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>671000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>696000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>640000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>385000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>555000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>496000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>499000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>576000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E35" s="3">
         <v>793000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>922000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>803000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1130000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1232000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1014000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>728000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>303000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>275000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>731000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1056000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>853000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>783000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>671000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>696000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>640000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>385000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>555000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>496000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>499000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>576000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,85 +3004,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11962000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10682000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10541000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8337000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9806000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11117000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16620000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11524000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13552000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16344000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13704000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12147000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11461000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11755000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12963000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9396000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12068000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15675000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13044000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11602000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13915000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12020000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11392000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9321000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,8 +3162,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3149,8 +3242,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3226,8 +3322,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3303,8 +3402,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3380,8 +3482,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3457,8 +3562,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3534,85 +3642,91 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2138000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2223000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2254000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2273000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2195000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2203000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2273000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2203000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2169000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2244000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2286000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2343000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2255000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2293000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2335000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2161000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2129000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1887000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1771000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1740000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1763000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1778000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1818000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1661000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,8 +3882,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3842,8 +3962,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100766000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95200000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95267000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95748000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91937000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92017000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95854000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95948000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95658000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96544000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98038000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104826000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105943000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106388000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105384000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>106792000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104545000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>99122000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95559000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95808000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92548000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91140000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>89050000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>90207000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,8 +4184,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4131,8 +4262,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4208,85 +4342,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5029000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4941000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4914000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5316000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4888000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4522000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4494000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4690000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4295000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4428000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4205000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4718000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4488000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4765000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4724000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4099000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4491000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3932000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3618000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4287000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3793000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3214000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2888000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3809000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4362,85 +4502,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14321000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12157000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13360000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14507000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12760000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13457000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15160000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15775000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15771000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16069000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17248000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19866000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20363000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21244000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21891000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23996000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23741000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21721000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21015000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20799000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19899000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20709000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20194000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20147000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4516,8 +4662,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87754000</v>
+      </c>
+      <c r="E66" s="3">
         <v>81807000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81849000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82093000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78001000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>77820000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82415000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83247000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83559000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84645000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86068000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89738000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90823000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>91654000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90675000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>92114000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90549000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>84664000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>81203000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>81574000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78146000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>76808000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>74687000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>76011000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5046,7 +5214,7 @@
         <v>734000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -5084,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16252000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15679000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15003000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14245000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13562000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12560000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11470000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10621000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10024000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9852000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9960000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12117000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11533000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10627000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9939000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8986000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8355000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7906000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7334000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6809000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6543000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6109000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5724000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5330000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12278000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12659000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12684000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12921000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13202000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13463000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12705000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11967000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11365000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11165000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11236000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14354000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15120000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14734000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14709000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14678000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13996000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14458000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14356000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14234000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14402000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14332000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14363000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14196000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E81" s="3">
         <v>793000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>922000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>803000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1130000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1232000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1014000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>728000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>303000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>275000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>731000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1056000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>853000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>783000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>671000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>696000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>640000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>385000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>555000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>496000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>499000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>576000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E83" s="3">
         <v>106000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>107000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>93000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>97000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>95000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>97000</v>
       </c>
       <c r="L83" s="3">
         <v>97000</v>
       </c>
       <c r="M83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="N83" s="3">
         <v>96000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>94000</v>
       </c>
       <c r="O83" s="3">
         <v>94000</v>
       </c>
       <c r="P83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>92000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>87000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>80000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>78000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>71000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>67000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>69000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>59000</v>
       </c>
       <c r="Y83" s="3">
         <v>59000</v>
       </c>
       <c r="Z83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>55000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1817000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1396000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2004000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1815000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1441000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1839000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2086000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1483000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2381000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1537000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2336000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2399000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1966000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2289000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2576000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2685000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2166000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1915000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2470000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2928000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1768000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1750000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2036000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,8 +6599,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6456,8 +6677,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4142000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1052000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1818000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4637000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2045000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3887000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>681000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3810000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>755000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1420000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,25 +6949,26 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-108000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-114000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-120000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-128000</v>
       </c>
       <c r="I96" s="3">
         <v>-128000</v>
@@ -6743,58 +6977,61 @@
         <v>-128000</v>
       </c>
       <c r="K96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-129000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-128000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-135000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-145000</v>
       </c>
       <c r="P96" s="3">
         <v>-145000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-150000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-151000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-156000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-113000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-118000</v>
       </c>
       <c r="W96" s="3">
         <v>-118000</v>
       </c>
       <c r="X96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="Y96" s="3">
         <v>-105000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-107000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,85 +7267,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4779000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-899000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-976000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2546000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-979000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-848000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>68000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1814000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4173000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2579000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-313000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2380000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>281000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1284000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-829000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1866000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7178,81 +7427,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-134000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2238000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5497000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2630000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1137000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>926000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-424000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2917000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1716000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2357000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1375000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1148000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2071000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,202 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4708000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4342000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4074000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4022000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4053000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3898000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3578000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3742000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3993000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3837000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3830000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4407000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4585000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4981000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4738000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4786000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4876000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4694000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4174000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4244000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4291000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4233000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3970000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3913000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3947000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -933,8 +939,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1022,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1123,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,8 +1219,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,88 +1302,94 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-90000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-92000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-93000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-94000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-80000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-83000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-82000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-80000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-82000</v>
       </c>
       <c r="N15" s="3">
         <v>-82000</v>
       </c>
       <c r="O15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="P15" s="3">
         <v>-78000</v>
       </c>
       <c r="Q15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="R15" s="3">
         <v>-75000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-70000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-64000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-63000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-29000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-56000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-50000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-53000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-45000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-43000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1803000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1343000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>996000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>754000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>784000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>265000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>637000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1484000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1399000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1632000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1376000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1660000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1611000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1781000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1419000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1995000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1939000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1717000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1764000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1729000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1667000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1659000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1632000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1395000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2999000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3078000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3268000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3269000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3633000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3506000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3105000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2509000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2438000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2198000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3031000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2925000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3370000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2957000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3367000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2881000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2755000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2457000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2480000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2562000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2566000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2311000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2281000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2552000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,168 +1612,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2164000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2077000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2012000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2035000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="X20" s="3">
         <v>-1687000</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1027000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1172000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1340000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1152000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1593000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1738000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1410000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1037000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>509000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>156000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>478000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1015000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1469000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1221000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1549000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1092000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>971000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>965000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>918000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>942000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>948000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>847000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>841000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>963000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1820,168 +1859,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E23" s="3">
         <v>922000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1066000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1233000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1047000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1641000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1315000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>944000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>412000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>382000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>921000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1375000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1129000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1462000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1012000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>893000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>892000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>847000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>875000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>879000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>788000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>782000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>908000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E24" s="3">
         <v>219000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>262000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>301000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>234000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>359000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>399000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>290000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>206000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>96000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>190000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>319000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>276000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>355000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>229000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>222000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>196000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>207000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>330000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>324000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>292000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>283000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>332000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E26" s="3">
         <v>703000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>804000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>932000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>813000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1141000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1242000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1025000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>738000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>313000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>286000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>731000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>853000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1107000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>783000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>671000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>696000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>640000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>545000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>555000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>496000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>499000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>576000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E27" s="3">
         <v>692000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>793000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>922000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>803000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1130000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1232000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1014000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>728000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>303000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>275000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>731000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>853000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1107000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>783000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>671000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>696000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>640000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>545000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>555000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>496000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>499000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>576000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2357,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2404,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2362,12 +2422,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-160000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2380,8 +2440,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2164000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2077000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2012000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2035000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2222000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2133000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1865000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1790000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1565000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2026000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2139000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2649000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2004000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1995000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1828000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1905000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1869000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1862000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1565000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1687000</v>
       </c>
       <c r="X32" s="3">
         <v>1687000</v>
       </c>
       <c r="Y32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1523000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1499000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1644000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E33" s="3">
         <v>692000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>793000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>922000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>803000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1130000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1232000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1014000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>728000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>303000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>275000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>731000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>853000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1107000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>783000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>671000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>696000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>640000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>385000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>555000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>496000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>499000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>576000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E35" s="3">
         <v>692000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>793000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>922000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>803000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1130000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1232000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1014000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>728000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>303000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>275000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>731000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>853000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1107000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>783000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>671000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>696000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>640000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>385000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>555000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>496000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>499000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>576000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10294000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11962000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10682000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10541000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8337000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9806000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11117000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16620000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11524000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13552000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16344000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13704000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12147000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11461000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11755000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12963000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9396000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12068000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15675000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13044000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11602000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13915000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12020000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11392000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9321000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3165,8 +3254,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3245,8 +3337,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3325,8 +3420,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3405,8 +3503,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3485,8 +3586,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3565,8 +3669,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3645,88 +3752,94 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2392000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2138000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2223000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2254000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2273000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2195000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2203000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2273000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2203000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2169000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2244000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2286000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2343000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2255000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2293000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2335000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2161000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2129000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1887000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1771000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1740000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1763000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1778000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1818000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1661000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,8 +4001,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3965,8 +4084,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104564000</v>
+      </c>
+      <c r="E54" s="3">
         <v>100766000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95200000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95267000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95748000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91937000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92017000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95854000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95948000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95658000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96544000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98038000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104826000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105943000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>106388000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105384000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106792000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104545000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>99122000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95559000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>95808000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92548000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>91140000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>89050000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>90207000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,8 +4314,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4265,8 +4395,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4345,88 +4478,94 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5765000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5029000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4941000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4914000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5316000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4888000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4522000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4494000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4690000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4295000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4428000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4205000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4718000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4488000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4765000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4724000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4099000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4491000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3932000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3618000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4287000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3793000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3214000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2888000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3809000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4505,88 +4644,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14191000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14321000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12157000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13360000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14507000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12760000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13457000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15160000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15775000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15771000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16069000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17248000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19866000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20363000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21244000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21891000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23996000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23741000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21721000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21015000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20799000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19899000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20709000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20194000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20147000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4665,8 +4810,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91691000</v>
+      </c>
+      <c r="E66" s="3">
         <v>87754000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81807000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>81849000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82093000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78001000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77820000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82415000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83247000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83559000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84645000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86068000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89738000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90823000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>91654000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90675000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>92114000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90549000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>84664000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>81203000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>81574000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>78146000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>76808000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>74687000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>76011000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5217,7 +5384,7 @@
         <v>734000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -5255,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16716000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16252000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15679000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15003000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14245000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13562000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12560000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11470000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10621000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10024000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9852000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9960000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12117000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11533000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10627000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9939000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8986000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8355000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7906000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7334000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6809000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6543000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6109000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5724000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5330000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12139000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12278000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12659000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12684000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12921000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13202000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13463000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12705000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11967000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11365000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11165000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11236000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14354000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15120000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14734000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14709000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14678000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13996000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14458000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14356000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14234000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14402000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14332000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14363000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14196000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E81" s="3">
         <v>692000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>793000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>922000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>803000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1130000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1232000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1014000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>728000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>303000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>275000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>731000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1056000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>853000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1107000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>783000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>671000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>696000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>640000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>385000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>555000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>496000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>499000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>576000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E83" s="3">
         <v>105000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>106000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>107000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>97000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>95000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>97000</v>
       </c>
       <c r="M83" s="3">
         <v>97000</v>
       </c>
       <c r="N83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="O83" s="3">
         <v>96000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>94000</v>
       </c>
       <c r="P83" s="3">
         <v>94000</v>
       </c>
       <c r="Q83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="R83" s="3">
         <v>92000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>87000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>78000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>73000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>71000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>67000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>69000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>59000</v>
       </c>
       <c r="Z83" s="3">
         <v>59000</v>
       </c>
       <c r="AA83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>55000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1847000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1634000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1817000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1396000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2004000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1815000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1441000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1839000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2086000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1483000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2381000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1537000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2336000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2399000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1966000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2289000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2576000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2685000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2166000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1915000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2470000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2928000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1768000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1750000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2036000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,8 +6819,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6680,8 +6900,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6858000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4142000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1052000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1818000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4637000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2045000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3887000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>681000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3810000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>755000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1420000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,28 +7182,29 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-109000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-108000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-114000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-120000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-128000</v>
       </c>
       <c r="J96" s="3">
         <v>-128000</v>
@@ -6980,58 +7213,61 @@
         <v>-128000</v>
       </c>
       <c r="L96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-129000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-128000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-135000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-145000</v>
       </c>
       <c r="Q96" s="3">
         <v>-145000</v>
       </c>
       <c r="R96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-150000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-151000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-156000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-113000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-118000</v>
       </c>
       <c r="X96" s="3">
         <v>-118000</v>
       </c>
       <c r="Y96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="Z96" s="3">
         <v>-105000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-107000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,88 +7512,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2380000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4779000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-899000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-976000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2546000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-979000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-848000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>68000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1814000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4173000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2579000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-313000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2380000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>281000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1284000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-829000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1866000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7430,84 +7678,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2631000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2271000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-134000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2238000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5497000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2630000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1137000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>926000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-424000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2917000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1716000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2357000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1375000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1148000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2071000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,202 +665,208 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4786000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4708000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4342000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4074000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4022000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4053000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3898000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3578000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3742000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3993000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3837000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3830000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4407000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4585000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4981000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4738000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4786000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4876000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4694000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4174000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4244000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4291000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4233000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3970000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3913000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3947000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,8 +948,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1034,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,8 +1238,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1305,91 +1324,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-87000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-90000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-92000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-93000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-94000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-80000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-83000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-82000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-80000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-82000</v>
       </c>
       <c r="O15" s="3">
         <v>-82000</v>
       </c>
       <c r="P15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="Q15" s="3">
         <v>-78000</v>
       </c>
       <c r="R15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="S15" s="3">
         <v>-75000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-70000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-64000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-63000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-29000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-56000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-50000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-53000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-45000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-43000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1803000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1343000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>996000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>754000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>784000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>265000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>637000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1484000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1399000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1632000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1376000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1660000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1611000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1781000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1419000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1995000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1939000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1717000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1764000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1729000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1667000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1659000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1632000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1395000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2761000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2905000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2999000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3078000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3268000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3269000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3633000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3506000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3105000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2509000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2438000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2198000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3031000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2925000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3370000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2957000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3367000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2881000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2755000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2457000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2480000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2562000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2566000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2311000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2281000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2552000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,174 +1645,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1971000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2164000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2077000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2012000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2035000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="Y20" s="3">
         <v>-1687000</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E21" s="3">
         <v>842000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1027000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1172000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1340000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1152000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1593000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1738000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1410000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1037000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>509000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>156000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>478000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1015000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1469000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1221000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1549000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1092000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>971000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>965000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>918000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>942000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>948000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>847000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>841000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>963000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1862,174 +1901,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E23" s="3">
         <v>741000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>922000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1066000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1233000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1047000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1641000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1315000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>944000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>412000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>59000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>382000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>921000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1375000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1129000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1462000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1012000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>893000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>892000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>847000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>875000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>879000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>788000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>782000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>908000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E24" s="3">
         <v>164000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>219000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>262000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>301000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>234000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>359000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>399000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>290000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>206000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>96000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>190000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>319000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>276000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>355000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>229000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>222000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>196000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>207000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>330000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>324000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>292000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>283000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>332000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E26" s="3">
         <v>577000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>703000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>804000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>932000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>813000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1141000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1242000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1025000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>738000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>313000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>286000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>731000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1056000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>853000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1107000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>783000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>671000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>696000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>640000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>545000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>555000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>496000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>499000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>576000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E27" s="3">
         <v>567000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>692000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>793000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>922000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>803000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1130000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1232000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1014000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>728000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>303000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>275000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>731000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1056000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>853000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1107000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>783000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>671000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>696000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>640000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>545000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>555000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>496000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>499000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>576000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2407,8 +2467,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2425,12 +2485,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-160000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2443,8 +2503,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1971000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2164000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2077000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2012000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2035000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2222000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2133000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1865000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1790000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1565000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2026000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2139000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2649000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2004000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1995000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1828000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1905000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1869000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1862000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1565000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1687000</v>
       </c>
       <c r="Y32" s="3">
         <v>1687000</v>
       </c>
       <c r="Z32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1523000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1499000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1644000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E33" s="3">
         <v>567000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>692000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>793000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>922000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>803000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1130000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1232000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1014000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>728000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>303000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>275000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>731000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1056000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>853000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1107000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>783000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>671000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>696000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>640000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>385000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>555000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>496000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>499000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>576000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E35" s="3">
         <v>567000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>692000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>793000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>922000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>803000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1130000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1232000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1014000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>728000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>303000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>275000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>731000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1056000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>853000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1107000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>783000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>671000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>696000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>640000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>385000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>555000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>496000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>499000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>576000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15303000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10294000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11962000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10682000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10541000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8337000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9806000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11117000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16620000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11524000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13552000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16344000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13704000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12147000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11461000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11755000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12963000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9396000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12068000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15675000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13044000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11602000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13915000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12020000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11392000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9321000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,8 +3346,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3340,8 +3432,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3423,8 +3518,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3506,8 +3604,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3589,8 +3690,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3672,8 +3776,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3755,91 +3862,97 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2392000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2138000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2223000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2254000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2273000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2195000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2203000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2273000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2203000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2169000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2244000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2286000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2343000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2255000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2293000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2335000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2161000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2129000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1887000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1771000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1740000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1763000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1778000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1818000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1661000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,8 +4120,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4087,8 +4206,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107853000</v>
+      </c>
+      <c r="E54" s="3">
         <v>104564000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100766000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95200000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95267000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95748000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91937000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92017000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95854000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95948000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95658000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96544000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98038000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104826000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105943000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>106388000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105384000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106792000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104545000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>99122000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>95559000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>95808000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92548000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>91140000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>89050000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>90207000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,8 +4444,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4398,8 +4528,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4481,91 +4614,97 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5301000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5765000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5029000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4941000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4914000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5316000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4888000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4522000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4494000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4690000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4295000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4428000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4205000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4718000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4488000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4765000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4724000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4099000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4491000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3932000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3618000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4287000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3793000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3214000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2888000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3809000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4647,91 +4786,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14934000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14191000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14321000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12157000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13360000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14507000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12760000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13457000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15160000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15775000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15771000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16069000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17248000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19866000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20363000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21244000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21891000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23996000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23741000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21721000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21015000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20799000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19899000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20709000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20194000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>20147000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4813,8 +4958,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94660000</v>
+      </c>
+      <c r="E66" s="3">
         <v>91691000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87754000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>81807000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81849000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82093000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78001000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77820000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82415000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83247000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83559000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84645000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86068000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89738000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90823000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>91654000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90675000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>92114000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90549000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>84664000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>81203000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>81574000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>78146000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>76808000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>74687000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>76011000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5387,7 +5554,7 @@
         <v>734000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -5425,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17369000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16716000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16252000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15679000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15003000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14245000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13562000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12560000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11470000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10621000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10024000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9852000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9960000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12117000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11533000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10627000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9939000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8986000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8355000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7906000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7334000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6809000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6543000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6109000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5724000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5330000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12459000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12139000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12278000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12659000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12684000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12921000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13202000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13463000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12705000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11967000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11365000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11165000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11236000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14354000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15120000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14734000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14709000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14678000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13996000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14458000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14356000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14234000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14402000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14332000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14363000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14196000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E81" s="3">
         <v>567000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>692000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>793000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>922000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>803000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1130000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1232000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1014000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>728000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>303000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>275000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>731000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1056000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>853000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1107000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>783000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>671000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>696000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>640000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>385000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>555000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>496000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>499000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>576000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E83" s="3">
         <v>101000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>106000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>107000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>105000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>97000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>95000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>97000</v>
       </c>
       <c r="N83" s="3">
         <v>97000</v>
       </c>
       <c r="O83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="P83" s="3">
         <v>96000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>94000</v>
       </c>
       <c r="Q83" s="3">
         <v>94000</v>
       </c>
       <c r="R83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="S83" s="3">
         <v>92000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>87000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>78000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>73000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>71000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>67000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>69000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>59000</v>
       </c>
       <c r="AA83" s="3">
         <v>59000</v>
       </c>
       <c r="AB83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>55000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1886000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1847000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1634000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1817000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1396000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2004000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1815000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1441000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1839000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2086000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1483000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2381000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1537000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2336000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2399000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1966000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2289000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2576000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2685000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2166000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1915000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2470000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2928000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1768000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1750000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2036000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,8 +7039,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6903,8 +7123,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6858000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4142000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1052000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1818000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4637000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2045000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3887000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>681000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3810000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>755000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1420000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,31 +7415,32 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-103000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-109000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-108000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-114000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-120000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-128000</v>
       </c>
       <c r="K96" s="3">
         <v>-128000</v>
@@ -7216,58 +7449,61 @@
         <v>-128000</v>
       </c>
       <c r="M96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-129000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-128000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-135000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-145000</v>
       </c>
       <c r="R96" s="3">
         <v>-145000</v>
       </c>
       <c r="S96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-150000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-151000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-156000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-113000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-118000</v>
       </c>
       <c r="Y96" s="3">
         <v>-118000</v>
       </c>
       <c r="Z96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="AA96" s="3">
         <v>-105000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-107000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,91 +7757,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2912000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2380000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4779000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-899000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-976000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2546000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-979000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-848000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>68000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1814000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4173000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2579000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-313000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2380000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>281000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1284000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-829000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1866000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7681,87 +7929,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5490000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2631000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2271000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-134000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2238000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5497000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2630000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1137000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>926000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-424000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2917000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1716000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2357000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1375000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1148000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2071000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,214 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4786000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4708000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4342000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4074000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4022000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4053000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3898000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3578000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3742000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3993000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3837000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3830000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4407000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4585000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4981000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4738000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4786000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4876000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4694000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4174000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4244000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4291000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4233000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3970000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3913000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3947000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -951,8 +957,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1037,8 +1046,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,8 +1168,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1257,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1327,94 +1346,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-97000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-87000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-90000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-92000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-93000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-94000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-80000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-83000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-82000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-80000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-82000</v>
       </c>
       <c r="P15" s="3">
         <v>-82000</v>
       </c>
       <c r="Q15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="R15" s="3">
         <v>-78000</v>
       </c>
       <c r="S15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="T15" s="3">
         <v>-75000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-70000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-64000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-63000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-29000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-50000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-53000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-48000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-45000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-43000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2284000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2025000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1803000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1343000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>996000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>754000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>784000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>265000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>637000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1484000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1399000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1632000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1376000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1660000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1611000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1781000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1419000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1995000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1939000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1717000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1764000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1729000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1667000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1659000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1632000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1395000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2737000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2761000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2905000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2999000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3078000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3268000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3269000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3633000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3506000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3105000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2509000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2438000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2198000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3031000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2925000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3370000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2957000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3367000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2881000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2755000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2457000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2480000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2562000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2566000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2311000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2281000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2552000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,180 +1678,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1995000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1971000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2164000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2077000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2012000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2035000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="Z20" s="3">
         <v>-1687000</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E21" s="3">
         <v>901000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>842000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1027000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1172000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1340000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1152000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1593000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1738000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1410000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1037000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>509000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>156000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>478000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1015000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1469000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1221000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1549000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1092000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>971000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>965000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>918000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>942000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>948000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>847000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>841000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>963000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1904,180 +1943,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E23" s="3">
         <v>790000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>741000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>922000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1066000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1233000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1047000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1641000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1315000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>944000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>412000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>382000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>921000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1375000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1129000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1462000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1012000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>893000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>892000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>847000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>875000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>879000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>788000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>782000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>908000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E24" s="3">
         <v>189000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>164000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>219000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>262000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>301000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>234000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>359000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>399000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>290000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>206000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>99000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>96000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>190000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>319000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>276000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>355000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>229000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>222000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>196000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>207000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>330000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>324000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>292000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>283000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>332000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E26" s="3">
         <v>601000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>577000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>703000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>804000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>932000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>813000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1141000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1242000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1025000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>738000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>313000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>286000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>731000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1056000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>853000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1107000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>783000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>671000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>696000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>640000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>545000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>555000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>496000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>499000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>576000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E27" s="3">
         <v>590000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>567000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>692000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>793000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>922000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>803000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1130000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1232000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1014000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>728000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>303000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>275000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>731000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1056000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>853000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1107000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>783000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>671000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>696000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>640000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>545000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>555000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>496000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>499000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>576000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2470,8 +2530,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2488,12 +2548,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-160000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1971000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2164000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2077000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2012000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2035000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2222000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2133000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1865000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1790000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1565000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2026000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2139000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2649000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2004000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1995000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1828000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1905000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1869000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1862000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1565000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>1687000</v>
       </c>
       <c r="Z32" s="3">
         <v>1687000</v>
       </c>
       <c r="AA32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1523000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1499000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1644000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E33" s="3">
         <v>590000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>567000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>692000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>793000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>922000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>803000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1130000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1232000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1014000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>728000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>303000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>275000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>731000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1056000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>853000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1107000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>783000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>671000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>696000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>640000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>385000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>555000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>496000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>499000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>576000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E35" s="3">
         <v>590000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>567000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>692000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>793000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>922000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>803000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1130000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1232000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1014000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>728000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>303000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>275000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>731000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1056000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>853000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1107000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>783000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>671000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>696000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>640000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>385000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>555000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>496000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>499000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>576000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,94 +3262,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12706000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15303000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10294000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11962000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10682000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10541000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8337000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9806000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11117000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16620000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11524000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13552000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16344000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13704000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12147000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11461000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11755000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12963000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9396000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12068000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15675000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13044000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11602000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13915000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12020000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11392000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9321000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3349,8 +3438,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3435,8 +3527,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3521,8 +3616,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3607,8 +3705,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3693,8 +3794,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3779,8 +3883,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3865,94 +3972,100 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2331000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2402000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2392000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2138000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2223000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2254000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2273000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2195000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2203000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2273000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2203000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2169000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2244000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2286000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2343000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2255000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2293000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2335000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2161000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2129000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1887000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1771000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1740000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1763000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1778000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1818000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1661000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,8 +4239,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4209,8 +4328,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108697000</v>
+      </c>
+      <c r="E54" s="3">
         <v>107853000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>104564000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100766000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95200000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95267000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95748000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91937000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92017000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95854000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95948000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95658000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96544000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98038000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104826000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105943000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106388000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105384000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>106792000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104545000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>99122000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>95559000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>95808000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92548000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>91140000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>89050000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>90207000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,8 +4574,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4531,8 +4661,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4617,94 +4750,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5321000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5301000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5765000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5029000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4941000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4914000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5316000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4888000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4522000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4494000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4690000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4295000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4428000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4205000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4718000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4488000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4765000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4724000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4099000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4491000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3932000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3618000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4287000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3793000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3214000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2888000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3809000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4789,94 +4928,100 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14231000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14934000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14191000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14321000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12157000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13360000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14507000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12760000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13457000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15160000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15775000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15771000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16069000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17248000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19866000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20363000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21244000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21891000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23996000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23741000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21721000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21015000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20799000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19899000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20709000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>20194000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>20147000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4961,8 +5106,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95317000</v>
+      </c>
+      <c r="E66" s="3">
         <v>94660000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91691000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87754000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>81807000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81849000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82093000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78001000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77820000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82415000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83247000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83559000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84645000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86068000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89738000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90823000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>91654000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90675000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>92114000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90549000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>84664000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>81203000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>81574000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>78146000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>76808000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>74687000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>76011000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5557,7 +5724,7 @@
         <v>734000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17828000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17369000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16716000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16252000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15679000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15003000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14245000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13562000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12560000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11470000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10621000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10024000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9852000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9960000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12117000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11533000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10627000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9939000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8986000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8355000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7906000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7334000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6809000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6543000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6109000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5724000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5330000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12646000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12459000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12139000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12278000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12659000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12684000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12921000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13202000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13463000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12705000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11967000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11365000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11165000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11236000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14354000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15120000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14734000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14709000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14678000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13996000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14458000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14356000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14234000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14402000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14332000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14363000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14196000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E81" s="3">
         <v>590000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>567000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>692000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>793000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>922000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>803000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1130000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1232000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1014000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>728000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>303000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>275000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>731000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1056000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>853000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1107000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>783000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>671000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>696000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>640000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>385000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>555000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>496000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>499000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>576000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E83" s="3">
         <v>111000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>101000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>106000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>107000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>105000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>97000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>95000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>97000</v>
       </c>
       <c r="O83" s="3">
         <v>97000</v>
       </c>
       <c r="P83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>96000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>94000</v>
       </c>
       <c r="R83" s="3">
         <v>94000</v>
       </c>
       <c r="S83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="T83" s="3">
         <v>92000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>87000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>80000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>78000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>73000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>71000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>67000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>69000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>59000</v>
       </c>
       <c r="AB83" s="3">
         <v>59000</v>
       </c>
       <c r="AC83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>55000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1886000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1847000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1634000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1817000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1396000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2004000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1815000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1441000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1839000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2086000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1483000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2381000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1537000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2336000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2399000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1966000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2289000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2576000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2685000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2166000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1915000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2470000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2928000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1768000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1750000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2036000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,8 +7259,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7126,8 +7346,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5189000</v>
+      </c>
+      <c r="E94" s="3">
         <v>692000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6858000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4142000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1052000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1818000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4637000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2045000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3887000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>681000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3810000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>755000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1420000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,34 +7648,35 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-103000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-109000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-108000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-114000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-120000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-128000</v>
       </c>
       <c r="L96" s="3">
         <v>-128000</v>
@@ -7452,58 +7685,61 @@
         <v>-128000</v>
       </c>
       <c r="N96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-129000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-128000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-145000</v>
       </c>
       <c r="S96" s="3">
         <v>-145000</v>
       </c>
       <c r="T96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-150000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-151000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-156000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-113000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-118000</v>
       </c>
       <c r="Z96" s="3">
         <v>-118000</v>
       </c>
       <c r="AA96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="AB96" s="3">
         <v>-105000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-107000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,94 +8002,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2912000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2380000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4779000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-899000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-976000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2546000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-979000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-848000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>68000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1814000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4173000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2579000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-313000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2380000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>281000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1284000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-829000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1866000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7932,90 +8180,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3065000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5490000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2631000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2271000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-134000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2238000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5497000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2630000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>926000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-424000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2917000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1716000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2357000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1375000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1148000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2071000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1801000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>SYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,214 +665,220 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5354000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5021000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4786000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4708000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4342000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4074000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4022000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4053000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3898000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3578000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3742000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3993000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3837000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3830000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4407000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4585000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4981000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4738000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4786000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4876000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4694000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4174000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4244000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4291000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4233000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3970000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3913000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3947000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3796000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -960,8 +966,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1049,8 +1058,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1171,8 +1184,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,8 +1276,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1349,97 +1368,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-99000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-97000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-87000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-90000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-92000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-93000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-94000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-80000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-83000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-82000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-80000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-83000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-82000</v>
       </c>
       <c r="Q15" s="3">
         <v>-82000</v>
       </c>
       <c r="R15" s="3">
-        <v>-78000</v>
+        <v>-82000</v>
       </c>
       <c r="S15" s="3">
         <v>-78000</v>
       </c>
       <c r="T15" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="U15" s="3">
         <v>-75000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-70000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-64000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-63000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-50000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-53000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-45000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-43000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2480000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2284000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2025000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1803000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1343000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>996000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>754000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>784000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>265000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>637000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1484000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1399000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1632000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1376000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1660000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1611000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1781000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1419000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1995000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1939000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1717000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1764000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1729000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1667000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1659000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1632000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1395000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1301000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2874000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2737000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2761000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2905000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2999000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3078000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3268000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3269000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3633000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3506000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3105000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2509000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2438000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2198000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3031000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2925000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3370000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2957000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3367000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2881000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2755000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2457000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2480000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2562000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2566000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2311000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2281000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2552000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2495000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,186 +1711,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2041000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1971000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2164000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2077000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2012000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2035000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2222000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2133000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1865000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1790000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2026000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2139000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2649000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2004000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1995000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1828000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1905000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1869000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1862000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1565000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1633000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1687000</v>
       </c>
       <c r="AA20" s="3">
         <v>-1687000</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1687000</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1523000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1644000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>949000</v>
+      </c>
+      <c r="E21" s="3">
         <v>855000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>901000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>842000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1027000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1172000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1340000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1152000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1593000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1738000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1410000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1037000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>509000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>156000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>478000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1015000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1469000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1221000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1549000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1092000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>971000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>965000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>918000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>942000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>948000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>847000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>841000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>963000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1019000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1946,186 +1985,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E23" s="3">
         <v>742000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>790000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>741000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>922000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1066000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1233000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1047000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1641000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1315000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>944000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>412000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>382000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>921000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1375000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1129000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1462000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1012000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>893000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>892000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>847000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>875000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>879000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>788000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>782000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>908000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>963000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E24" s="3">
         <v>173000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>189000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>164000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>219000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>262000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>301000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>234000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>359000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>399000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>290000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>206000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>99000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>96000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>190000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>319000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>276000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>355000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>229000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>222000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>196000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>207000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>330000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>324000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>292000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>283000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>332000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>359000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E26" s="3">
         <v>569000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>601000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>577000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>703000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>804000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>932000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>813000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1141000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1242000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1025000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>738000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>313000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>286000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>731000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1056000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>853000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1107000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>783000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>671000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>696000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>640000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>545000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>555000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>496000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>499000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>576000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E27" s="3">
         <v>559000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>590000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>567000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>692000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>793000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>922000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>803000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1130000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1232000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1014000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>728000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>303000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>275000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>731000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1056000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>853000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1107000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>783000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>671000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>696000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>640000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>545000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>555000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>496000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>499000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>576000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2533,8 +2593,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2551,12 +2611,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-160000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2041000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1995000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1971000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2164000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2077000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2012000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2035000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2222000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2133000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1865000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1790000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1565000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2026000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2139000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2649000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2004000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1995000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1828000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1905000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1869000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1862000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1565000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1633000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1687000</v>
       </c>
       <c r="AA32" s="3">
         <v>1687000</v>
       </c>
       <c r="AB32" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1523000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1499000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1644000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E33" s="3">
         <v>559000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>590000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>567000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>692000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>793000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>922000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>803000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1130000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1232000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1014000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>728000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>303000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>275000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>731000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1056000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>853000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1107000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>783000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>671000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>696000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>640000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>385000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>555000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>496000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>499000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>576000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E35" s="3">
         <v>559000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>590000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>567000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>692000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>793000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>922000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>803000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1130000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1232000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1014000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>728000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>303000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>275000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>731000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1056000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>853000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1107000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>783000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>671000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>696000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>640000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>385000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>555000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>496000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>499000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>576000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15643000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12706000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15303000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10294000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11962000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10682000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10541000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8337000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9806000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11117000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16620000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11524000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13552000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16344000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13704000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12147000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11461000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11755000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12963000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9396000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12068000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15675000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13044000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11602000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13915000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>12020000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11392000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9321000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>13588000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3441,8 +3530,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3530,8 +3622,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3619,8 +3714,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3708,8 +3806,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3797,8 +3898,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3886,8 +3990,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3975,97 +4082,103 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2274000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2331000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2402000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2392000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2138000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2223000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2254000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2273000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2195000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2203000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2273000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2203000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2169000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2244000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2286000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2343000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2255000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2293000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2335000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2161000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2129000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1887000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1771000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1740000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1763000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1778000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1818000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1661000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1682000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,8 +4358,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4331,8 +4450,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112939000</v>
+      </c>
+      <c r="E54" s="3">
         <v>108697000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107853000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>104564000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100766000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95200000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95267000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95748000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91937000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92017000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95854000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95948000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95658000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96544000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98038000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104826000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105943000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106388000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105384000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>106792000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>104545000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>99122000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>95559000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>95808000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>92548000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>91140000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>89050000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>90207000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>87159000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,8 +4704,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4664,8 +4794,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4753,97 +4886,103 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5875000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5321000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5301000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5765000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5029000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4941000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4914000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5316000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4888000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4522000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4494000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4690000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4295000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4428000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4205000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4718000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4488000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4765000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4724000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4099000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4491000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3932000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3618000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4287000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3793000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3214000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2888000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3809000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3196000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4931,97 +5070,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15231000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14231000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14934000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14191000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14321000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12157000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13360000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14507000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12760000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13457000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15160000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15775000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15771000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16069000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17248000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19866000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20363000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21244000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21891000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23996000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23741000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21721000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21015000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20799000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>19899000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>20709000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>20194000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>20147000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>20167000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5109,8 +5254,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99172000</v>
+      </c>
+      <c r="E66" s="3">
         <v>95317000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94660000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91691000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87754000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>81807000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>81849000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82093000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78001000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77820000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82415000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83247000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>83559000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84645000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86068000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89738000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90823000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>91654000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90675000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>92114000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90549000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>84664000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>81203000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>81574000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>78146000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>76808000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>74687000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>76011000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>73178000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5727,7 +5894,7 @@
         <v>734000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>734000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18338000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17828000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17369000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16716000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16252000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15679000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15003000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14245000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13562000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12560000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11470000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10621000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10024000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9852000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9960000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12117000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11533000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10627000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9939000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8986000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8355000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7906000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7334000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6809000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6543000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6109000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5724000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5330000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>4861000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13033000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12646000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12459000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12139000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12278000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12659000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12684000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12921000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13202000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13463000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12705000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11967000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11365000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11165000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11236000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14354000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15120000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14734000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14709000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14678000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13996000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14458000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14356000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14234000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14402000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14332000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14363000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14196000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>13981000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E81" s="3">
         <v>559000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>590000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>567000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>692000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>793000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>922000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>803000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1130000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1232000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1014000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>728000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>303000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>275000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>731000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1056000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>853000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1107000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>783000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>671000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>696000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>640000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>385000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>555000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>496000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>499000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>576000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>604000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E83" s="3">
         <v>113000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>111000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>101000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>106000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>107000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>105000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>97000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>95000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>97000</v>
       </c>
       <c r="P83" s="3">
         <v>97000</v>
       </c>
       <c r="Q83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="R83" s="3">
         <v>96000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>94000</v>
       </c>
       <c r="S83" s="3">
         <v>94000</v>
       </c>
       <c r="T83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="U83" s="3">
         <v>92000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>87000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>80000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>78000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>73000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>71000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>67000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>69000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>59000</v>
       </c>
       <c r="AC83" s="3">
         <v>59000</v>
       </c>
       <c r="AD83" s="3">
+        <v>59000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>55000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2482000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1908000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1886000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1847000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1634000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1817000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1396000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2004000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1815000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1441000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1839000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2086000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1483000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2381000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1537000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2336000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2399000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1966000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2289000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2576000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2685000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2166000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1915000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2470000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2928000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1768000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1750000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2036000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1815000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,8 +7479,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7349,8 +7569,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2568000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5189000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>692000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6858000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4142000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1052000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1818000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5764000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1834000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1853000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4637000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3259000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3171000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2045000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3887000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>681000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1570000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3182000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3810000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6285000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10477000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3029000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>755000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7162000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1808000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1860000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1420000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-8169000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3916000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,37 +7881,38 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-99000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-100000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-103000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-109000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-108000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-114000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-120000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-124000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-128000</v>
       </c>
       <c r="M96" s="3">
         <v>-128000</v>
@@ -7688,58 +7921,61 @@
         <v>-128000</v>
       </c>
       <c r="O96" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-129000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-135000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-145000</v>
       </c>
       <c r="T96" s="3">
         <v>-145000</v>
       </c>
       <c r="U96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-150000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-151000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-156000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-113000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-114000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-118000</v>
       </c>
       <c r="AA96" s="3">
         <v>-118000</v>
       </c>
       <c r="AB96" s="3">
-        <v>-105000</v>
+        <v>-118000</v>
       </c>
       <c r="AC96" s="3">
         <v>-105000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-107000</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,97 +8247,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3031000</v>
+      </c>
+      <c r="E100" s="3">
         <v>216000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2912000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2380000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4779000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-899000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-976000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2546000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1623000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5148000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-979000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-848000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1796000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4287000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2091000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1253000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>68000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3182000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1814000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4173000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2579000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-313000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2380000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>281000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1284000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-829000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1866000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>3902000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8183,93 +8431,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2945000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3065000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5490000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2631000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2271000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-134000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2238000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1214000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1642000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5560000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5497000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2021000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2788000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2630000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1137000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>926000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-424000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1148000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2917000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1895000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3619000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1716000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2357000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2313000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1375000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1148000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2071000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4267000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1801000</v>
       </c>
     </row>
